--- a/lab2/ДЗ4.xlsx
+++ b/lab2/ДЗ4.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Документы\GitHub\lab2\lab2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3317BE14-5F33-4C96-BEF3-39B349EDB164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="828" windowWidth="21468" windowHeight="9192"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Вариант 1" sheetId="1" r:id="rId1"/>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="3">
   <si>
     <t>X</t>
   </si>
@@ -37,7 +43,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -78,6 +84,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -126,7 +135,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -159,9 +168,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -194,6 +220,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -369,16 +412,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -389,7 +432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.2010675985366106</v>
       </c>
@@ -400,7 +443,7 @@
         <v>1.8310918809148982</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.23135439958423376</v>
       </c>
@@ -411,7 +454,7 @@
         <v>-2.6269987996408721</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>7.1375269442796707E-2</v>
       </c>
@@ -422,7 +465,7 @@
         <v>4.2304046738688372</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.3390725958161056</v>
       </c>
@@ -433,7 +476,7 @@
         <v>1.066782941013757</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-0.47738726064562798</v>
       </c>
@@ -444,7 +487,7 @@
         <v>0.43287870376676185</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>9.73875867202878E-3</v>
       </c>
@@ -455,7 +498,7 @@
         <v>-1.1635636434458561</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-0.21327780000865459</v>
       </c>
@@ -466,7 +509,7 @@
         <v>-0.56938300998238045</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.39354863530024886</v>
       </c>
@@ -477,7 +520,7 @@
         <v>7.1002919494284438</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-0.43338972143828869</v>
       </c>
@@ -488,7 +531,7 @@
         <v>3.2797827515244053</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.92699490021914244</v>
       </c>
@@ -499,7 +542,7 @@
         <v>3.1028778237201529</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.44358324073255062</v>
       </c>
@@ -510,7 +553,7 @@
         <v>1.5064273030259421</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-2.6568260975182056E-2</v>
       </c>
@@ -521,7 +564,7 @@
         <v>4.8677608592970403</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.51652928395196795</v>
       </c>
@@ -532,7 +575,7 @@
         <v>8.7392233711144645</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.52675847196951509</v>
       </c>
@@ -543,7 +586,7 @@
         <v>6.2917556366794161</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.9335155226290226</v>
       </c>
@@ -554,7 +597,7 @@
         <v>2.424949130006302</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-4.6884305775165558E-3</v>
       </c>
@@ -565,7 +608,7 @@
         <v>0.88771051431395653</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-0.70669449027627707</v>
       </c>
@@ -576,7 +619,7 @@
         <v>0.7283029470290161</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-0.15904274675995111</v>
       </c>
@@ -587,7 +630,7 @@
         <v>0.59141411684614753</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-8.0294620245695114E-2</v>
       </c>
@@ -598,7 +641,7 @@
         <v>1.8340839878336068</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.4499690355733037</v>
       </c>
@@ -609,7 +652,7 @@
         <v>3.3510765763627108</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-0.13071688171476126</v>
       </c>
@@ -620,7 +663,7 @@
         <v>-0.17745770148050433</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-0.13668572995811701</v>
       </c>
@@ -631,7 +674,7 @@
         <v>3.6236549709822832</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.29431003471836448</v>
       </c>
@@ -642,7 +685,7 @@
         <v>0.56366095750393441</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.90488147456198931</v>
       </c>
@@ -653,7 +696,7 @@
         <v>3.9677264723983718</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5.7924873661249876E-2</v>
       </c>
@@ -664,7 +707,7 @@
         <v>1.1804755701555458</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.43523160833865404</v>
       </c>
@@ -675,7 +718,7 @@
         <v>-0.97672326035259927</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-0.49092343542724848</v>
       </c>
@@ -686,7 +729,7 @@
         <v>-2.9173839685832395</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0.84821080742403865</v>
       </c>
@@ -697,7 +740,7 @@
         <v>-0.47481295092781561</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0.55495384335517883</v>
       </c>
@@ -708,7 +751,7 @@
         <v>-0.12527680151999387</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0.62150189047679305</v>
       </c>
@@ -719,7 +762,7 @@
         <v>6.4672012628429503</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.37478847894817591</v>
       </c>
@@ -730,7 +773,7 @@
         <v>10.625527530777841</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-0.87289016600698233</v>
       </c>
@@ -741,7 +784,7 @@
         <v>4.2049465423043673</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0.42230975860729814</v>
       </c>
@@ -752,7 +795,7 @@
         <v>7.3290793444674014</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-0.65396047104150057</v>
       </c>
@@ -763,7 +806,7 @@
         <v>-1.5781218264538346</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0.76975664496421814</v>
       </c>
@@ -774,7 +817,7 @@
         <v>1.7856243297128052</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0.1977199986577034</v>
       </c>
@@ -785,7 +828,7 @@
         <v>5.3433602359335559</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0.63818094925954938</v>
       </c>
@@ -796,7 +839,7 @@
         <v>2.5808112110278021</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-0.76401986833661795</v>
       </c>
@@ -807,7 +850,7 @@
         <v>-0.52003450687211306</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-0.12037713220342994</v>
       </c>
@@ -818,7 +861,7 @@
         <v>-2.2573444304640091</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0.32050846377387643</v>
       </c>
@@ -829,7 +872,7 @@
         <v>0.68503936766228057</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0.19054241897538304</v>
       </c>
@@ -840,7 +883,7 @@
         <v>1.0940447659578996</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0.2856798991560936</v>
       </c>
@@ -851,7 +894,7 @@
         <v>-0.44295866357647595</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-0.76402369001880288</v>
       </c>
@@ -862,7 +905,7 @@
         <v>-0.35282634621240616</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>0.31588512007147074</v>
       </c>
@@ -873,7 +916,7 @@
         <v>6.00738692020877</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0.18359604803845286</v>
       </c>
@@ -884,7 +927,7 @@
         <v>3.1980232919261149</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>-0.7048473609611392</v>
       </c>
@@ -895,7 +938,7 @@
         <v>-0.8832615827547472</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-0.56083495076745749</v>
       </c>
@@ -906,7 +949,7 @@
         <v>3.7396343491419222</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>-0.99503191513940692</v>
       </c>
@@ -917,7 +960,7 @@
         <v>4.4546644063718501</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0.58127150591462851</v>
       </c>
@@ -928,7 +971,7 @@
         <v>3.8126510391176596</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>7.4637843295931816E-2</v>
       </c>
@@ -939,7 +982,7 @@
         <v>9.5503641905407353</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-0.33827040391042829</v>
       </c>
@@ -950,7 +993,7 @@
         <v>-0.62035768533098601</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0.43169908225536346</v>
       </c>
@@ -961,7 +1004,7 @@
         <v>4.1157036839557897</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-0.5653578476049006</v>
       </c>
@@ -972,7 +1015,7 @@
         <v>5.6660530948232495</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-0.53881968930363655</v>
       </c>
@@ -983,7 +1026,7 @@
         <v>1.8123857600629421</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-0.7724966979585588</v>
       </c>
@@ -994,7 +1037,7 @@
         <v>5.3381210980090454</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0.63429681584239006</v>
       </c>
@@ -1005,7 +1048,7 @@
         <v>8.0328605779759599</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0.98327357228845358</v>
       </c>
@@ -1016,7 +1059,7 @@
         <v>1.0725012607378603</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>0.56763219460844994</v>
       </c>
@@ -1027,7 +1070,7 @@
         <v>0.75405890307751644</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-0.30725612957030535</v>
       </c>
@@ -1038,7 +1081,7 @@
         <v>0.74832582772551182</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-7.9632940702140331E-2</v>
       </c>
@@ -1049,7 +1092,7 @@
         <v>7.857826687452274E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>0.91470761736854911</v>
       </c>
@@ -1060,7 +1103,7 @@
         <v>3.6123836452847726</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-0.40727846976369619</v>
       </c>
@@ -1071,7 +1114,7 @@
         <v>3.6536782007785975</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>8.9888463262468576E-2</v>
       </c>
@@ -1082,7 +1125,7 @@
         <v>0.77948085409610579</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>0.5055894972756505</v>
       </c>
@@ -1093,7 +1136,7 @@
         <v>-2.021303908438286</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-0.16490439837798476</v>
       </c>
@@ -1104,7 +1147,7 @@
         <v>7.6064301053833336</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-0.67842119000852108</v>
       </c>
@@ -1115,7 +1158,7 @@
         <v>0.52510312040041396</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-0.12185006402432919</v>
       </c>
@@ -1126,7 +1169,7 @@
         <v>-7.2612369088196793E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-0.14148544333875179</v>
       </c>
@@ -1137,7 +1180,7 @@
         <v>1.6539009227648929</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>0.62157277623191476</v>
       </c>
@@ -1148,7 +1191,7 @@
         <v>5.3928267658002547</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>0.35467028943821788</v>
       </c>
@@ -1159,7 +1202,7 @@
         <v>3.578008080715656</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-0.64234098047018051</v>
       </c>
@@ -1170,7 +1213,7 @@
         <v>-0.35955906252572811</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>0.14277811395004392</v>
       </c>
@@ -1181,7 +1224,7 @@
         <v>3.4537737192587414</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>-0.68164190743118525</v>
       </c>
@@ -1192,7 +1235,7 @@
         <v>6.1513758648181858</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>0.22331226291134953</v>
       </c>
@@ -1203,7 +1246,7 @@
         <v>2.3814567551082577</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>0.96807686006650329</v>
       </c>
@@ -1214,7 +1257,7 @@
         <v>3.7195676701998717</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>-0.43599451659247279</v>
       </c>
@@ -1225,7 +1268,7 @@
         <v>-2.1408507708198545</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>0.57387520978227258</v>
       </c>
@@ -1236,7 +1279,7 @@
         <v>1.2185839199218615</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>0.94270908460021019</v>
       </c>
@@ -1247,7 +1290,7 @@
         <v>-0.49806247811866289</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>-0.99210325255990028</v>
       </c>
@@ -1258,7 +1301,7 @@
         <v>-2.2787659366105641</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>0.85317451599985361</v>
       </c>
@@ -1269,7 +1312,7 @@
         <v>3.7869595653712209</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>-0.7052529095672071</v>
       </c>
@@ -1280,7 +1323,7 @@
         <v>-1.345962717440353</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>0.38789858715608716</v>
       </c>
@@ -1291,7 +1334,7 @@
         <v>0.32553199437815339</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>-0.99291521357372403</v>
       </c>
@@ -1302,7 +1345,7 @@
         <v>0.51315920187731612</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>-7.6939624268561602E-2</v>
       </c>
@@ -1313,7 +1356,7 @@
         <v>-1.2749890052493633</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>0.60053574293851852</v>
       </c>
@@ -1324,7 +1367,7 @@
         <v>2.7786054053724709</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>-3.8831955287605524E-2</v>
       </c>
@@ -1335,7 +1378,7 @@
         <v>1.681062604634789</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>0.86713533662259579</v>
       </c>
@@ -1346,7 +1389,7 @@
         <v>-3.9137531981865763</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>-0.60107270814478397</v>
       </c>
@@ -1357,7 +1400,7 @@
         <v>2.1686287793905805</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>-0.81047396920621395</v>
       </c>
@@ -1368,7 +1411,7 @@
         <v>4.9159151811495061</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>0.97810417134314775</v>
       </c>
@@ -1379,7 +1422,7 @@
         <v>7.1398630755790649</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>0.7791461693122983</v>
       </c>
@@ -1390,7 +1433,7 @@
         <v>7.3035091686749238</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>0.58903424814343452</v>
       </c>
@@ -1401,7 +1444,7 @@
         <v>-0.57946803390050494</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>0.4973145998083055</v>
       </c>
@@ -1412,7 +1455,7 @@
         <v>9.0850171798761981E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>0.69323321944102645</v>
       </c>
@@ -1423,7 +1466,7 @@
         <v>-0.35736035578147263</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>0.47046097414568067</v>
       </c>
@@ -1434,7 +1477,7 @@
         <v>4.2237477984314786</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>-5.3820788860321045E-2</v>
       </c>
@@ -1445,7 +1488,7 @@
         <v>-0.8665057894231234</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>-0.48259945353493094</v>
       </c>
@@ -1456,7 +1499,7 @@
         <v>2.3385154557391985</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>-0.89401011355221272</v>
       </c>
@@ -1467,7 +1510,7 @@
         <v>4.3012200343987557</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>0.79421565029770136</v>
       </c>
@@ -1478,7 +1521,7 @@
         <v>3.3513261738873776</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>-0.18472275882959366</v>
       </c>
@@ -1495,16 +1538,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1515,7 +1558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4.4858134365640581</v>
       </c>
@@ -1526,7 +1569,7 @@
         <v>5.2314980941065237</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2.0923540771473199</v>
       </c>
@@ -1537,7 +1580,7 @@
         <v>-1.6100927781714969</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-4.4550136681646109</v>
       </c>
@@ -1548,7 +1591,7 @@
         <v>6.0081742971086021</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5.474610281875357</v>
       </c>
@@ -1559,7 +1602,7 @@
         <v>3.9034186191120188</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-0.56279014307074249</v>
       </c>
@@ -1570,7 +1613,7 @@
         <v>7.0928749257567718</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5.6889913296326995</v>
       </c>
@@ -1581,7 +1624,7 @@
         <v>2.4411229797923282</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-7.0098266445565969</v>
       </c>
@@ -1592,7 +1635,7 @@
         <v>1.4878226321952046</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8.6559100076556206</v>
       </c>
@@ -1603,7 +1646,7 @@
         <v>6.0878760808954766</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2.5375409328844398</v>
       </c>
@@ -1614,7 +1657,7 @@
         <v>-3.420377186584874</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-0.31320202187635005</v>
       </c>
@@ -1625,7 +1668,7 @@
         <v>7.1082905104360705</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-1.3501528780907393</v>
       </c>
@@ -1636,7 +1679,7 @@
         <v>-0.41242878673260686</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-0.53320674085989594</v>
       </c>
@@ -1647,7 +1690,7 @@
         <v>1.8513710828287884</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3.0044297229032964</v>
       </c>
@@ -1658,7 +1701,7 @@
         <v>-1.3298842686267962</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-0.85497960122302175</v>
       </c>
@@ -1669,7 +1712,7 @@
         <v>4.8090482236586123</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-7.6863992440048605</v>
       </c>
@@ -1680,7 +1723,7 @@
         <v>-0.85717691167987553</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4.3386657831724733</v>
       </c>
@@ -1691,7 +1734,7 @@
         <v>-2.1650824470353234</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-9.9451859937980771</v>
       </c>
@@ -1702,7 +1745,7 @@
         <v>5.3463527252988161</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.28929758234880865</v>
       </c>
@@ -1713,7 +1756,7 @@
         <v>4.7862431661823672</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3.3234442886896431</v>
       </c>
@@ -1724,7 +1767,7 @@
         <v>2.0188139172150446</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3.720131485722959</v>
       </c>
@@ -1735,7 +1778,7 @@
         <v>2.2914207088659406</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-1.1533409964758903</v>
       </c>
@@ -1746,7 +1789,7 @@
         <v>1.429229423089112</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-6.8873267308808863</v>
       </c>
@@ -1757,7 +1800,7 @@
         <v>3.2876685884735122</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-4.4727185294032097</v>
       </c>
@@ -1768,7 +1811,7 @@
         <v>4.2543763783082822</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-4.7048773688729852</v>
       </c>
@@ -1779,7 +1822,7 @@
         <v>3.1130198670521523</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-9.3348214887082577</v>
       </c>
@@ -1790,7 +1833,7 @@
         <v>0.57115184919810602</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3.0111263028811663</v>
       </c>
@@ -1801,7 +1844,7 @@
         <v>5.554129668923137</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-3.1682469721417874</v>
       </c>
@@ -1812,7 +1855,7 @@
         <v>-1.6196947963705872</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3.4164252413902432</v>
       </c>
@@ -1823,7 +1866,7 @@
         <v>-0.39349964324961162</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-2.7753005740232766</v>
       </c>
@@ -1834,7 +1877,7 @@
         <v>0.87087327698856121</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-7.6564255889970809</v>
       </c>
@@ -1845,7 +1888,7 @@
         <v>3.3158611002525982</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1.7456460727844387</v>
       </c>
@@ -1856,7 +1899,7 @@
         <v>3.9571868210800103</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2.7017415279988199</v>
       </c>
@@ -1867,7 +1910,7 @@
         <v>0.12274978987970631</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>8.6216598160099238</v>
       </c>
@@ -1878,7 +1921,7 @@
         <v>1.1301617509592179</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>6.2461042464710772</v>
       </c>
@@ -1889,7 +1932,7 @@
         <v>5.6348763607377261</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-8.8123954350594431</v>
       </c>
@@ -1900,7 +1943,7 @@
         <v>2.2661093029099311</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0.55549561232328415</v>
       </c>
@@ -1911,7 +1954,7 @@
         <v>3.7083382375349956</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-6.0890683131292462</v>
       </c>
@@ -1922,7 +1965,7 @@
         <v>1.3240272043530268</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-9.4908789845649153</v>
       </c>
@@ -1933,7 +1976,7 @@
         <v>8.7370947805660961</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>7.9070102144032717</v>
       </c>
@@ -1944,7 +1987,7 @@
         <v>1.0805659604971931</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-1.577011208049953</v>
       </c>
@@ -1955,7 +1998,7 @@
         <v>6.5113760528445654</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-5.0608875742182136</v>
       </c>
@@ -1966,7 +2009,7 @@
         <v>1.6568782675119955</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-0.31060282862745225</v>
       </c>
@@ -1977,7 +2020,7 @@
         <v>3.2150427296468651</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-7.4280753252096474</v>
       </c>
@@ -1988,7 +2031,7 @@
         <v>-0.5242870214178792</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-7.0076810969039798</v>
       </c>
@@ -1999,7 +2042,7 @@
         <v>1.7850486875249079</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5.512002314440906</v>
       </c>
@@ -2010,7 +2053,7 @@
         <v>4.7710809540658676</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>-5.4333130507729948</v>
       </c>
@@ -2021,7 +2064,7 @@
         <v>1.243293479142205</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-9.2995346677489579</v>
       </c>
@@ -2032,7 +2075,7 @@
         <v>1.8831937732127393</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>8.0758491230662912</v>
       </c>
@@ -2043,7 +2086,7 @@
         <v>-0.57780063230240675</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4.4353611734695733</v>
       </c>
@@ -2054,7 +2097,7 @@
         <v>3.1083705627435947</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-5.1983536032494158</v>
       </c>
@@ -2065,7 +2108,7 @@
         <v>-1.3116230381569061</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>8.303306840127334</v>
       </c>
@@ -2076,7 +2119,7 @@
         <v>1.3690675632432949</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3.0971104113850743</v>
       </c>
@@ -2087,7 +2130,7 @@
         <v>0.10468946585972105</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-6.4743494379799813</v>
       </c>
@@ -2098,7 +2141,7 @@
         <v>3.4020054608498635</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-3.2694479359779507</v>
       </c>
@@ -2109,7 +2152,7 @@
         <v>1.9827387098151532</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2.5568476368207484</v>
       </c>
@@ -2120,7 +2163,7 @@
         <v>-5.3929463269341849</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1.7548271063715219</v>
       </c>
@@ -2131,7 +2174,7 @@
         <v>1.3561923682666461</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-1.6121673504821956</v>
       </c>
@@ -2142,7 +2185,7 @@
         <v>-3.0695871987186223</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-0.71327450941316783</v>
       </c>
@@ -2153,7 +2196,7 @@
         <v>-0.20702439649669602</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-8.4115547842811793</v>
       </c>
@@ -2164,7 +2207,7 @@
         <v>0.13801521781823656</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0.32885003974661231</v>
       </c>
@@ -2175,7 +2218,7 @@
         <v>-3.4865643765817111</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-6.4245812508743256</v>
       </c>
@@ -2186,7 +2229,7 @@
         <v>1.4263456302377038</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-3.4896544059738517</v>
       </c>
@@ -2197,7 +2240,7 @@
         <v>-0.27420655253960868</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-6.7654634171631187</v>
       </c>
@@ -2208,7 +2251,7 @@
         <v>5.1608894703702077</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-5.6322607123292983</v>
       </c>
@@ -2219,7 +2262,7 @@
         <v>3.424286785674814</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-8.5977317518554628</v>
       </c>
@@ -2230,7 +2273,7 @@
         <v>1.4204241994752038</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>8.430492578772828</v>
       </c>
@@ -2241,7 +2284,7 @@
         <v>2.852483445378164</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>4.6957903613802046</v>
       </c>
@@ -2252,7 +2295,7 @@
         <v>-3.9532952569680671</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-7.7335021819453686</v>
       </c>
@@ -2263,7 +2306,7 @@
         <v>3.0410417095308082</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>4.0567508556414396</v>
       </c>
@@ -2274,7 +2317,7 @@
         <v>6.4061670929548811</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-3.5635379748418927</v>
       </c>
@@ -2285,7 +2328,7 @@
         <v>-2.2175655800889551</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>8.4755145695526153</v>
       </c>
@@ -2296,7 +2339,7 @@
         <v>3.7028805976083019</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>-2.4079678617417812</v>
       </c>
@@ -2307,7 +2350,7 @@
         <v>2.0233108708705987</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>-2.2291140675079077</v>
       </c>
@@ -2318,7 +2361,7 @@
         <v>4.7289266740311193</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>-1.7704530346672982</v>
       </c>
@@ -2329,7 +2372,7 @@
         <v>1.8723005996964379</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>6.2845235343556851</v>
       </c>
@@ -2340,7 +2383,7 @@
         <v>3.3890060868563436</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2.8776353385765105</v>
       </c>
@@ -2351,7 +2394,7 @@
         <v>6.8193553287884612</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>-6.5689168740063906</v>
       </c>
@@ -2362,7 +2405,7 @@
         <v>6.6448969865254881</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>-5.7211603720206767</v>
       </c>
@@ -2373,7 +2416,7 @@
         <v>3.0970990850304152</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>0.98122730641625822</v>
       </c>
@@ -2384,7 +2427,7 @@
         <v>-1.1384491249058328</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>4.1800867668353021</v>
       </c>
@@ -2395,7 +2438,7 @@
         <v>-0.86123498493089468</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>7.5052592598367482</v>
       </c>
@@ -2406,7 +2449,7 @@
         <v>1.4472383937185505</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2.7531933314166963</v>
       </c>
@@ -2417,7 +2460,7 @@
         <v>-0.58735712341755253</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>8.2477612199727446</v>
       </c>
@@ -2428,7 +2471,7 @@
         <v>2.3165414310714025</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>5.3846084678079933</v>
       </c>
@@ -2439,7 +2482,7 @@
         <v>4.0901412711339695</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>0.49331820732913911</v>
       </c>
@@ -2450,7 +2493,7 @@
         <v>-3.3152590251733649</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>5.5013358499854803</v>
       </c>
@@ -2461,7 +2504,7 @@
         <v>-0.72687925483285865</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>6.0346412581857294</v>
       </c>
@@ -2472,7 +2515,7 @@
         <v>0.32430813449935725</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>-0.62004377669654787</v>
       </c>
@@ -2483,7 +2526,7 @@
         <v>4.0028497001369363</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>-8.4646492751780897</v>
       </c>
@@ -2494,7 +2537,7 @@
         <v>2.3232117708750679</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>-1.6918714533094317</v>
       </c>
@@ -2505,7 +2548,7 @@
         <v>0.84557603712699514</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>6.7591093913652003</v>
       </c>
@@ -2516,7 +2559,7 @@
         <v>3.2354079446732138</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>-4.6482287095859647</v>
       </c>
@@ -2527,7 +2570,7 @@
         <v>1.2957556424999757</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>6.5762203866615891</v>
       </c>
@@ -2538,7 +2581,7 @@
         <v>1.6334517809579314</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>6.3035071473568678</v>
       </c>
@@ -2549,7 +2592,7 @@
         <v>-7.8816106064120373E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>-0.68018267187289894</v>
       </c>
@@ -2560,7 +2603,7 @@
         <v>-2.1641483487223168</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>-5.5487663969397545</v>
       </c>
@@ -2571,7 +2614,7 @@
         <v>1.1008666126377622</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>5.6551581458188593</v>
       </c>
@@ -2582,7 +2625,7 @@
         <v>7.8504412398517154</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>7.9594914230983704</v>
       </c>
@@ -2593,7 +2636,7 @@
         <v>4.3988448909394871</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1.3022901320364326</v>
       </c>
@@ -2604,7 +2647,7 @@
         <v>-0.18933684125341577</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>-6.3502120170742273</v>
       </c>
@@ -2621,16 +2664,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2641,7 +2684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.60973289515823126</v>
       </c>
@@ -2652,7 +2695,7 @@
         <v>4.0939673628326334</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5.1354303024709225E-2</v>
       </c>
@@ -2663,7 +2706,7 @@
         <v>2.4591512743339869</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-0.24883100017905235</v>
       </c>
@@ -2674,7 +2717,7 @@
         <v>-1.8454761057223772</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-9.6017858013510704E-3</v>
       </c>
@@ -2685,7 +2728,7 @@
         <v>1.3864250793636503</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-0.99798863893374801</v>
       </c>
@@ -2696,7 +2739,7 @@
         <v>3.4432255509417402</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-0.51062590070068836</v>
       </c>
@@ -2707,7 +2750,7 @@
         <v>2.405610815401193</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.85354362148791552</v>
       </c>
@@ -2718,7 +2761,7 @@
         <v>-3.1004197483734526</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3.8012868724763393E-2</v>
       </c>
@@ -2729,7 +2772,7 @@
         <v>-1.0177624882003578E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.21155994897708297</v>
       </c>
@@ -2740,7 +2783,7 @@
         <v>2.0712788276555774</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.11180117400363088</v>
       </c>
@@ -2751,7 +2794,7 @@
         <v>0.27821565247645874</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9.0702205430716276E-2</v>
       </c>
@@ -2762,7 +2805,7 @@
         <v>5.8628189345029327</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.96074668178334832</v>
       </c>
@@ -2773,7 +2816,7 @@
         <v>0.13760118420846768</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-0.47737068729475141</v>
       </c>
@@ -2784,7 +2827,7 @@
         <v>-2.8831908536986663</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-0.41928235301747918</v>
       </c>
@@ -2795,7 +2838,7 @@
         <v>2.5875949863548806</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.69886067928746343</v>
       </c>
@@ -2806,7 +2849,7 @@
         <v>3.0351843742477946</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.54611462680622935</v>
       </c>
@@ -2817,7 +2860,7 @@
         <v>7.0284328705099686</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.61206177342683077</v>
       </c>
@@ -2828,7 +2871,7 @@
         <v>-0.20309622429616248</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-0.56332901353016496</v>
       </c>
@@ -2839,7 +2882,7 @@
         <v>4.4328089610111618</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.62821799190714955</v>
       </c>
@@ -2850,7 +2893,7 @@
         <v>3.8096853808557452</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.83388600451871753</v>
       </c>
@@ -2861,7 +2904,7 @@
         <v>-1.0259923881648096</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.98691543843597174</v>
       </c>
@@ -2872,7 +2915,7 @@
         <v>3.1854434680141024</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-0.72385299624875188</v>
       </c>
@@ -2883,7 +2926,7 @@
         <v>-1.1201671007675875</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.42810092633590102</v>
       </c>
@@ -2894,7 +2937,7 @@
         <v>2.1184003416325377</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.14750669430941343</v>
       </c>
@@ -2905,7 +2948,7 @@
         <v>3.0736384304151647</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.13208483532071114</v>
       </c>
@@ -2916,7 +2959,7 @@
         <v>1.9301245695275844</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-0.48020237451419234</v>
       </c>
@@ -2927,7 +2970,7 @@
         <v>2.9256336428975178</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0.93952721962705255</v>
       </c>
@@ -2938,7 +2981,7 @@
         <v>-3.4127464040120392</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0.82685350952669978</v>
       </c>
@@ -2949,7 +2992,7 @@
         <v>1.4536401204073932</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-0.80698428861796856</v>
       </c>
@@ -2960,7 +3003,7 @@
         <v>-0.17639589396595134</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0.61877704551443458</v>
       </c>
@@ -2971,7 +3014,7 @@
         <v>-2.30864135192797</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-0.2570586814545095</v>
       </c>
@@ -2982,7 +3025,7 @@
         <v>0.28340533794198564</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5.9788049198687077E-2</v>
       </c>
@@ -2993,7 +3036,7 @@
         <v>3.653781184080616</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-0.3852061671204865</v>
       </c>
@@ -3004,7 +3047,7 @@
         <v>9.7686324362921573E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-0.85368852922692895</v>
       </c>
@@ -3015,7 +3058,7 @@
         <v>-2.9383862496650757</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-0.99289514683187008</v>
       </c>
@@ -3026,7 +3069,7 @@
         <v>4.7438323839438663</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-0.20796031365171075</v>
       </c>
@@ -3037,7 +3080,7 @@
         <v>2.4571405324290998</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-0.8883584407158196</v>
       </c>
@@ -3048,7 +3091,7 @@
         <v>-8.2743696076732487E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-5.5500578600913286E-2</v>
       </c>
@@ -3059,7 +3102,7 @@
         <v>2.8945292922409029</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-0.77638836950063705</v>
       </c>
@@ -3070,7 +3113,7 @@
         <v>3.4855489647603219</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0.39866276318207383</v>
       </c>
@@ -3081,7 +3124,7 @@
         <v>3.2739795855701801</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-0.17903352249413729</v>
       </c>
@@ -3092,7 +3135,7 @@
         <v>6.3271694562095586</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-0.49703629594296217</v>
       </c>
@@ -3103,7 +3146,7 @@
         <v>4.5574368178718085</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-0.5567935649305582</v>
       </c>
@@ -3114,7 +3157,7 @@
         <v>1.6003557125571994</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-0.63493274478241801</v>
       </c>
@@ -3125,7 +3168,7 @@
         <v>3.4938707321711924</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0.35709956474602222</v>
       </c>
@@ -3136,7 +3179,7 @@
         <v>-2.6203523478252002</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>-0.10114834317937493</v>
       </c>
@@ -3147,7 +3190,7 @@
         <v>6.4940551276831187</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0.63840977801010013</v>
       </c>
@@ -3158,7 +3201,7 @@
         <v>3.7588499591355458</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0.73371773352846503</v>
       </c>
@@ -3169,7 +3212,7 @@
         <v>5.4476812314464231</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>-0.94222898315638304</v>
       </c>
@@ -3180,7 +3223,7 @@
         <v>3.5756028162384492</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0.70291641028597951</v>
       </c>
@@ -3191,7 +3234,7 @@
         <v>3.4664917909915065</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0.6744942762888968</v>
       </c>
@@ -3202,7 +3245,7 @@
         <v>0.87617575798389669</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-0.14223817270249128</v>
       </c>
@@ -3213,7 +3256,7 @@
         <v>3.8501153223093922</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-0.82204745011404157</v>
       </c>
@@ -3224,7 +3267,7 @@
         <v>0.10027895505668649</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-0.7859673835337162</v>
       </c>
@@ -3235,7 +3278,7 @@
         <v>2.0561581109719866</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0.15790092293173075</v>
       </c>
@@ -3246,7 +3289,7 @@
         <v>-2.8811653978362051</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>6.7228618077933788E-2</v>
       </c>
@@ -3257,7 +3300,7 @@
         <v>-0.80019499330535293</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-0.62396110920235515</v>
       </c>
@@ -3268,7 +3311,7 @@
         <v>4.6570077928295257</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>0.58010025043040514</v>
       </c>
@@ -3279,7 +3322,7 @@
         <v>1.6943254523237936</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>0.96473778039216995</v>
       </c>
@@ -3290,7 +3333,7 @@
         <v>-2.2268581569060526</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-0.66779212653636932</v>
       </c>
@@ -3301,7 +3344,7 @@
         <v>4.977254402605932</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-0.22378760483115911</v>
       </c>
@@ -3312,7 +3355,7 @@
         <v>3.2208848857244958</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>7.5647463090717793E-3</v>
       </c>
@@ -3323,7 +3366,7 @@
         <v>-2.2744428346747672</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>0.10564397601410747</v>
       </c>
@@ -3334,7 +3377,7 @@
         <v>-1.5611675523614661</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>0.52918367320671678</v>
       </c>
@@ -3345,7 +3388,7 @@
         <v>5.6710981642507949</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>0.92069883225485682</v>
       </c>
@@ -3356,7 +3399,7 @@
         <v>0.32512487290849501</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>0.27884568506851792</v>
       </c>
@@ -3367,7 +3410,7 @@
         <v>4.9954692614035796</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>6.2520850449800491E-2</v>
       </c>
@@ -3378,7 +3421,7 @@
         <v>-0.37616264692440238</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-8.0956406891345978E-2</v>
       </c>
@@ -3389,7 +3432,7 @@
         <v>6.3153287468435746</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>0.66661306098103523</v>
       </c>
@@ -3400,7 +3443,7 @@
         <v>3.8153520719181491</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>0.79592091031372547</v>
       </c>
@@ -3411,7 +3454,7 @@
         <v>2.1169861464262141</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-0.78809866774827242</v>
       </c>
@@ -3422,7 +3465,7 @@
         <v>0.56799929177601194</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>0.49977308232337236</v>
       </c>
@@ -3433,7 +3476,7 @@
         <v>2.6736155794224792</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>-0.53332503885030746</v>
       </c>
@@ -3444,7 +3487,7 @@
         <v>4.5712996284766696</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>-0.81643853429704905</v>
       </c>
@@ -3455,7 +3498,7 @@
         <v>1.0078901637048721</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>-0.16122626978904009</v>
       </c>
@@ -3466,7 +3509,7 @@
         <v>4.1401963264091624</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>0.48436121689155698</v>
       </c>
@@ -3477,7 +3520,7 @@
         <v>3.9964480419783106</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>-0.47629237081855536</v>
       </c>
@@ -3488,7 +3531,7 @@
         <v>-0.21534026334058742</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>-0.40577468043193221</v>
       </c>
@@ -3499,7 +3542,7 @@
         <v>0.4700305736592596</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>0.49737043026834726</v>
       </c>
@@ -3510,7 +3553,7 @@
         <v>1.8130406191246478</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>0.88809311203658581</v>
       </c>
@@ -3521,7 +3564,7 @@
         <v>1.1446352346860631</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>0.9006908442825079</v>
       </c>
@@ -3532,7 +3575,7 @@
         <v>2.4450914791862872</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>-0.19380836561322212</v>
       </c>
@@ -3543,7 +3586,7 @@
         <v>2.3258479392495195</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>0.15470965206623077</v>
       </c>
@@ -3554,7 +3597,7 @@
         <v>-6.8678660461887304</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>-0.54630942782387137</v>
       </c>
@@ -3565,7 +3608,7 @@
         <v>5.4739935043363657</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>0.87565201334655285</v>
       </c>
@@ -3576,7 +3619,7 @@
         <v>7.9574606024490668</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>-0.72719641122967005</v>
       </c>
@@ -3587,7 +3630,7 @@
         <v>4.5083205879122827</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>0.50966291548684239</v>
       </c>
@@ -3598,7 +3641,7 @@
         <v>3.3083402916123967</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>-0.44593501230701804</v>
       </c>
@@ -3609,7 +3652,7 @@
         <v>5.2663860098228668</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>8.6361234076321125E-2</v>
       </c>
@@ -3620,7 +3663,7 @@
         <v>-0.92357135896768483</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>7.0366553962230682E-2</v>
       </c>
@@ -3631,7 +3674,7 @@
         <v>1.7750398134386753</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>0.64905488584190607</v>
       </c>
@@ -3642,7 +3685,7 @@
         <v>2.8137483981454574</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>-0.93831426883116364</v>
       </c>
@@ -3653,7 +3696,7 @@
         <v>9.1580105937016114</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>0.3448217730037868</v>
       </c>
@@ -3664,7 +3707,7 @@
         <v>-1.7263677525055745</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>0.38654348347336054</v>
       </c>
@@ -3675,7 +3718,7 @@
         <v>5.1684714664997342</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>0.28663284610956907</v>
       </c>
@@ -3686,7 +3729,7 @@
         <v>-0.13681781839851803</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>0.42165090795606375</v>
       </c>
@@ -3697,7 +3740,7 @@
         <v>3.7827755177845122</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>-0.39662107126787305</v>
       </c>
@@ -3708,7 +3751,7 @@
         <v>-3.1294870292897237E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>0.98687721788883209</v>
       </c>
@@ -3719,7 +3762,7 @@
         <v>-1.6926979357229355</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>0.65786392660811543</v>
       </c>
@@ -3730,7 +3773,7 @@
         <v>-2.2908169709691997</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>0.73826053785160184</v>
       </c>
@@ -3747,16 +3790,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3767,7 +3810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.82077505579218268</v>
       </c>
@@ -3778,7 +3821,7 @@
         <v>5.3195654402713082</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-0.67566110752522945</v>
       </c>
@@ -3789,7 +3832,7 @@
         <v>-1.8842597370971772</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-0.2752647721208632</v>
       </c>
@@ -3800,7 +3843,7 @@
         <v>6.4632952996068713</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-6.517201941460371E-2</v>
       </c>
@@ -3811,7 +3854,7 @@
         <v>-2.5312365152762117</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.43522558826953173</v>
       </c>
@@ -3822,7 +3865,7 @@
         <v>0.5207361322444064</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.59561238018795848</v>
       </c>
@@ -3833,7 +3876,7 @@
         <v>-0.72647418813066045</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.63590054353699088</v>
       </c>
@@ -3844,7 +3887,7 @@
         <v>-2.1116380369472925</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-0.33295812923461199</v>
       </c>
@@ -3855,7 +3898,7 @@
         <v>2.7378349566373705</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-0.87104257475584745</v>
       </c>
@@ -3866,7 +3909,7 @@
         <v>-1.5192957348173657</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.40537410415709019</v>
       </c>
@@ -3877,7 +3920,7 @@
         <v>3.9064496887590408</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.12020929483696818</v>
       </c>
@@ -3888,7 +3931,7 @@
         <v>0.84186366533512325</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.53950026864185929</v>
       </c>
@@ -3899,7 +3942,7 @@
         <v>-3.6983436287355058</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.288978043012321</v>
       </c>
@@ -3910,7 +3953,7 @@
         <v>7.4395127835859434</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-0.72393237659707665</v>
       </c>
@@ -3921,7 +3964,7 @@
         <v>2.9476620835004086</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-0.86888727964833379</v>
       </c>
@@ -3932,7 +3975,7 @@
         <v>2.8536742026946977</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-0.24140502186492085</v>
       </c>
@@ -3943,7 +3986,7 @@
         <v>3.49203967340737</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-0.4057432422414422</v>
       </c>
@@ -3954,7 +3997,7 @@
         <v>1.3888646759886631</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.91258925665169954</v>
       </c>
@@ -3965,7 +4008,7 @@
         <v>4.210118807147964</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-0.23019711254164577</v>
       </c>
@@ -3976,7 +4019,7 @@
         <v>2.1705107925223484</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-0.23488225415349007</v>
       </c>
@@ -3987,7 +4030,7 @@
         <v>0.6888955895938309</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-0.60020819073542953</v>
       </c>
@@ -3998,7 +4041,7 @@
         <v>-2.4454659759909445</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.48541239649057388</v>
       </c>
@@ -4009,7 +4052,7 @@
         <v>2.5222253279698221</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-0.71547205792739987</v>
       </c>
@@ -4020,7 +4063,7 @@
         <v>-2.169760227215022</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.45139117864891887</v>
       </c>
@@ -4031,7 +4074,7 @@
         <v>3.3247439408974122</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.32615092163905501</v>
       </c>
@@ -4042,7 +4085,7 @@
         <v>1.5217571231752443</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.53349605249240994</v>
       </c>
@@ -4053,7 +4096,7 @@
         <v>1.3554490479643664</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-0.75113794766366482</v>
       </c>
@@ -4064,7 +4107,7 @@
         <v>7.4579365287511372</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-0.75054675852879882</v>
       </c>
@@ -4075,7 +4118,7 @@
         <v>-0.42728537810195766</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0.39257067814469337</v>
       </c>
@@ -4086,7 +4129,7 @@
         <v>1.8626256168759276</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2.4508697912096977E-2</v>
       </c>
@@ -4097,7 +4140,7 @@
         <v>5.2205937412888588</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-0.37293364014476538</v>
       </c>
@@ -4108,7 +4151,7 @@
         <v>-2.0050841602849321</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0.94582331925630569</v>
       </c>
@@ -4119,7 +4162,7 @@
         <v>1.5519016074964178</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-0.39013411151245236</v>
       </c>
@@ -4130,7 +4173,7 @@
         <v>1.9699467449635419</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0.84287318587303162</v>
       </c>
@@ -4141,7 +4184,7 @@
         <v>1.074006940537056</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0.77237432589754462</v>
       </c>
@@ -4152,7 +4195,7 @@
         <v>4.9429196671472164</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0.47209311416372657</v>
       </c>
@@ -4163,7 +4206,7 @@
         <v>-1.9997114957619546</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-0.288872255012393</v>
       </c>
@@ -4174,7 +4217,7 @@
         <v>1.6640100342967585</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0.90087887365370989</v>
       </c>
@@ -4185,7 +4228,7 @@
         <v>3.8550440151698391</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0.4082935992628336</v>
       </c>
@@ -4196,7 +4239,7 @@
         <v>3.3134954405857817</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-0.72100568050518632</v>
       </c>
@@ -4207,7 +4250,7 @@
         <v>-3.1454243119410155</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-4.4679352547973394E-2</v>
       </c>
@@ -4218,7 +4261,7 @@
         <v>6.1185133946173647</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0.40949312876909971</v>
       </c>
@@ -4229,7 +4272,7 @@
         <v>3.7652670320210309</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-0.83008329151198268</v>
       </c>
@@ -4240,7 +4283,7 @@
         <v>-1.7345188250546766</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-0.45363187557086349</v>
       </c>
@@ -4251,7 +4294,7 @@
         <v>2.2690967792310088</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>-0.28995325230062008</v>
       </c>
@@ -4262,7 +4305,7 @@
         <v>7.0803105054069668</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>-0.99074386432766914</v>
       </c>
@@ -4273,7 +4316,7 @@
         <v>5.9851920612738114</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0.87968148710206151</v>
       </c>
@@ -4284,7 +4327,7 @@
         <v>1.2734560113742579</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>-0.74998336099088192</v>
       </c>
@@ -4295,7 +4338,7 @@
         <v>-1.227118884752417</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0.87825120659545064</v>
       </c>
@@ -4306,7 +4349,7 @@
         <v>1.1783946589354568</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-9.8468250129371881E-2</v>
       </c>
@@ -4317,7 +4360,7 @@
         <v>1.0308353012247553</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-0.12229515332728624</v>
       </c>
@@ -4328,7 +4371,7 @@
         <v>2.7664285238556992</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-0.86721887113526464</v>
       </c>
@@ -4339,7 +4382,7 @@
         <v>-2.547823805448366</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-0.91775626409798861</v>
       </c>
@@ -4350,7 +4393,7 @@
         <v>4.7986443965138843</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-0.46797470794990659</v>
       </c>
@@ -4361,7 +4404,7 @@
         <v>5.9254718320756803</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-0.80149500304833055</v>
       </c>
@@ -4372,7 +4415,7 @@
         <v>4.1391758831621335</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0.98967780126258731</v>
       </c>
@@ -4383,7 +4426,7 @@
         <v>-1.7224709254350787</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-0.97360453987494111</v>
       </c>
@@ -4394,7 +4437,7 @@
         <v>2.7548817170624145</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>0.75792870065197349</v>
       </c>
@@ -4405,7 +4448,7 @@
         <v>2.7699947376709746</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>3.8148642517626286E-2</v>
       </c>
@@ -4416,7 +4459,7 @@
         <v>0.95980256319319013</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0.52251171134412289</v>
       </c>
@@ -4427,7 +4470,7 @@
         <v>3.0500420881032184</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-0.24248598469421268</v>
       </c>
@@ -4438,7 +4481,7 @@
         <v>4.929091775128164</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-0.86108452873304486</v>
       </c>
@@ -4449,7 +4492,7 @@
         <v>1.7358903144940783</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>0.38612502720206976</v>
       </c>
@@ -4460,7 +4503,7 @@
         <v>1.9025377615222079</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-0.86005091015249491</v>
       </c>
@@ -4471,7 +4514,7 @@
         <v>0.87994514410695501</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-0.97701893979683518</v>
       </c>
@@ -4482,7 +4525,7 @@
         <v>0.47314144414065451</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>0.31151544908061624</v>
       </c>
@@ -4493,7 +4536,7 @@
         <v>1.8884322994254739</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-0.44065599562600255</v>
       </c>
@@ -4504,7 +4547,7 @@
         <v>1.5183779080943409</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-0.72133174445480108</v>
       </c>
@@ -4515,7 +4558,7 @@
         <v>3.0116877944687088</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-2.652088925242424E-2</v>
       </c>
@@ -4526,7 +4569,7 @@
         <v>3.4061413453562714</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-0.10532567091286182</v>
       </c>
@@ -4537,7 +4580,7 @@
         <v>3.619312352706948</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-0.83988804742693901</v>
       </c>
@@ -4548,7 +4591,7 @@
         <v>4.5096219447198802</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>-0.48142514424398541</v>
       </c>
@@ -4559,7 +4602,7 @@
         <v>4.3121679773756227</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>0.16583589883521199</v>
       </c>
@@ -4570,7 +4613,7 @@
         <v>-1.480792625037429</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>-0.66283228993415833</v>
       </c>
@@ -4581,7 +4624,7 @@
         <v>-0.59883052804415149</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>-0.48475022381171584</v>
       </c>
@@ -4592,7 +4635,7 @@
         <v>0.88794187202445429</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>0.10925447754561901</v>
       </c>
@@ -4603,7 +4646,7 @@
         <v>1.1293357599053726</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>0.96985619934275746</v>
       </c>
@@ -4614,7 +4657,7 @@
         <v>-5.9805868045265864</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>0.2048647222109139</v>
       </c>
@@ -4625,7 +4668,7 @@
         <v>0.4659737706609004</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>0.19375727837905288</v>
       </c>
@@ -4636,7 +4679,7 @@
         <v>1.1670442506254386</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>0.63524818327277899</v>
       </c>
@@ -4647,7 +4690,7 @@
         <v>2.3404763022552828</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>-0.37336414912715554</v>
       </c>
@@ -4658,7 +4701,7 @@
         <v>3.7693277556567617</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>0.54275730717927217</v>
       </c>
@@ -4669,7 +4712,7 @@
         <v>2.8722789379070939</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>-0.51193992188200355</v>
       </c>
@@ -4680,7 +4723,7 @@
         <v>3.1635909162153588</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>-0.29541521472856402</v>
       </c>
@@ -4691,7 +4734,7 @@
         <v>-1.83291760658678</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>-0.70336638437584043</v>
       </c>
@@ -4702,7 +4745,7 @@
         <v>7.193913395453456</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>-0.51146510941907763</v>
       </c>
@@ -4713,7 +4756,7 @@
         <v>3.0062694254955322</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>-0.18939416669309139</v>
       </c>
@@ -4724,7 +4767,7 @@
         <v>0.82721784691163958</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>-0.8595003173686564</v>
       </c>
@@ -4735,7 +4778,7 @@
         <v>10.880631609149617</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>0.77838777936995029</v>
       </c>
@@ -4746,7 +4789,7 @@
         <v>0.21551031690391831</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>-0.58033849904313684</v>
       </c>
@@ -4757,7 +4800,7 @@
         <v>3.3121644136455499</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>-0.7480642618611455</v>
       </c>
@@ -4768,7 +4811,7 @@
         <v>0.16604512144817662</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>-4.4710220769047737E-2</v>
       </c>
@@ -4779,7 +4822,7 @@
         <v>5.3352035106429625</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>-0.98742643743753433</v>
       </c>
@@ -4790,7 +4833,7 @@
         <v>2.2632981829061705</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>-0.38809155393391848</v>
       </c>
@@ -4801,7 +4844,7 @@
         <v>3.4155782825844825</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>0.16759109171107411</v>
       </c>
@@ -4812,7 +4855,7 @@
         <v>4.9056388880241704</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>0.48330995440483093</v>
       </c>
@@ -4823,7 +4866,7 @@
         <v>5.6789460955733295</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>0.90287721995264292</v>
       </c>
@@ -4834,7 +4877,7 @@
         <v>-2.3871422591141727</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>-0.88315105903893709</v>
       </c>
@@ -4845,7 +4888,7 @@
         <v>-2.6896180850789522</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>0.10374527657404542</v>
       </c>
@@ -4856,7 +4899,7 @@
         <v>3.6803920149045397</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>-0.62678513815626502</v>
       </c>
@@ -4873,16 +4916,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4893,7 +4936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2.5793074406683445</v>
       </c>
@@ -4904,7 +4947,7 @@
         <v>31.642746284602019</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>8.6669299418572336</v>
       </c>
@@ -4915,7 +4958,7 @@
         <v>30.390075799549564</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-1.8333761114627123</v>
       </c>
@@ -4926,7 +4969,7 @@
         <v>26.772757633775669</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2.51246667210944</v>
       </c>
@@ -4937,7 +4980,7 @@
         <v>31.025684386793884</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10.707880130270496</v>
       </c>
@@ -4948,7 +4991,7 @@
         <v>30.832632309086279</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>9.0801947133149952</v>
       </c>
@@ -4959,7 +5002,7 @@
         <v>29.607426888900644</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-4.9604080324061215</v>
       </c>
@@ -4970,7 +5013,7 @@
         <v>30.527489524295486</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11.891505933832377</v>
       </c>
@@ -4981,7 +5024,7 @@
         <v>29.616043326910074</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8.4655583184212446</v>
       </c>
@@ -4992,7 +5035,7 @@
         <v>29.304605091021237</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3.3468703979160637</v>
       </c>
@@ -5003,7 +5046,7 @@
         <v>28.111554191727596</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8.3195324905682355</v>
       </c>
@@ -5014,7 +5057,7 @@
         <v>31.796736350202664</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-2.3069636514410377</v>
       </c>
@@ -5025,7 +5068,7 @@
         <v>30.805266924999469</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8.2835630506742746</v>
       </c>
@@ -5036,7 +5079,7 @@
         <v>33.81146410225243</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4.158073506783694</v>
       </c>
@@ -5047,7 +5090,7 @@
         <v>31.257788068942375</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5.3747974066063762</v>
       </c>
@@ -5058,7 +5101,7 @@
         <v>29.96071860492205</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-0.21590345003642142</v>
       </c>
@@ -5069,7 +5112,7 @@
         <v>23.540011887241889</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-0.41802267939783633</v>
       </c>
@@ -5080,7 +5123,7 @@
         <v>28.96402905900587</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5.1042181928642094</v>
       </c>
@@ -5091,7 +5134,7 @@
         <v>29.205369521622252</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.62273022858425975</v>
       </c>
@@ -5102,7 +5145,7 @@
         <v>30.50500372455793</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-2.3275750714819878</v>
       </c>
@@ -5113,7 +5156,7 @@
         <v>30.117785519369871</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2.0037254926282912</v>
       </c>
@@ -5124,7 +5167,7 @@
         <v>27.009531939937819</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5.5910477887373418</v>
       </c>
@@ -5135,7 +5178,7 @@
         <v>30.769297731548786</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>8.2686693263240159</v>
       </c>
@@ -5146,7 +5189,7 @@
         <v>28.058392701497358</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3.7616881460417062</v>
       </c>
@@ -5157,7 +5200,7 @@
         <v>29.704257904685683</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>9.8508935908321291</v>
       </c>
@@ -5168,7 +5211,7 @@
         <v>30.889567591926873</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-1.0335698497947305</v>
       </c>
@@ -5179,7 +5222,7 @@
         <v>29.624998942068785</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3.124461175641045</v>
       </c>
@@ -5190,7 +5233,7 @@
         <v>30.193599211201285</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2.1489797362592071</v>
       </c>
@@ -5201,7 +5244,7 @@
         <v>25.457196682179688</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-2.7472549080848694</v>
       </c>
@@ -5212,7 +5255,7 @@
         <v>26.987389860505573</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1.3600867977365851</v>
       </c>
@@ -5223,7 +5266,7 @@
         <v>34.097034563836324</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5.1262047393247485</v>
       </c>
@@ -5234,7 +5277,7 @@
         <v>29.16446681568161</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>10.897043147357181</v>
       </c>
@@ -5245,7 +5288,7 @@
         <v>27.301117512267346</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-0.23164675734005868</v>
       </c>
@@ -5256,7 +5299,7 @@
         <v>28.375712830745364</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-0.88477901322767138</v>
       </c>
@@ -5267,7 +5310,7 @@
         <v>30.85318797791329</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-1.7617645326536149</v>
       </c>
@@ -5278,7 +5321,7 @@
         <v>30.320798431280707</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-4.6209473260678351</v>
       </c>
@@ -5289,7 +5332,7 @@
         <v>28.463912166381203</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>10.757363711250946</v>
       </c>
@@ -5300,7 +5343,7 @@
         <v>27.932318409127497</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-2.697977458126843</v>
       </c>
@@ -5311,7 +5354,7 @@
         <v>30.097516224352795</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>8.6221561052370816</v>
       </c>
@@ -5322,7 +5365,7 @@
         <v>36.776390174243403</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1.4064336074516177</v>
       </c>
@@ -5333,7 +5376,7 @@
         <v>30.931266089529529</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-4.0841502412222326</v>
       </c>
@@ -5344,7 +5387,7 @@
         <v>29.070240488507345</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-4.4200547896325588</v>
       </c>
@@ -5355,7 +5398,7 @@
         <v>34.526199757998484</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-3.7022599389310926</v>
       </c>
@@ -5366,7 +5409,7 @@
         <v>22.499126315278378</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>9.9115655566565692</v>
       </c>
@@ -5377,7 +5420,7 @@
         <v>29.807319988387277</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>11.736366920405999</v>
       </c>
@@ -5388,7 +5431,7 @@
         <v>33.185485921106277</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>8.8680461675394326</v>
       </c>
@@ -5399,7 +5442,7 @@
         <v>28.706258948484955</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-2.757979100337252</v>
       </c>
@@ -5410,7 +5453,7 @@
         <v>30.784224277367802</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>5.3112364360131323</v>
       </c>
@@ -5421,7 +5464,7 @@
         <v>28.718250264302945</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>8.867618357995525</v>
       </c>
@@ -5432,7 +5475,7 @@
         <v>25.690541184179864</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1.6598327476531267</v>
       </c>
@@ -5443,7 +5486,7 @@
         <v>33.526021085610857</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>5.4646937309298664</v>
       </c>
@@ -5454,7 +5497,7 @@
         <v>27.252128331975609</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>10.298508784268051</v>
       </c>
@@ -5465,7 +5508,7 @@
         <v>22.95817384062974</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>8.7023058258928359</v>
       </c>
@@ -5476,7 +5519,7 @@
         <v>29.970540756177854</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0.5935859230812639</v>
       </c>
@@ -5487,7 +5530,7 @@
         <v>33.888879471795299</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-1.6735627946909517</v>
       </c>
@@ -5498,7 +5541,7 @@
         <v>32.656568455738451</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-4.2000667261891067</v>
       </c>
@@ -5509,7 +5552,7 @@
         <v>31.716523810554669</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-2.8327308741863817</v>
       </c>
@@ -5520,7 +5563,7 @@
         <v>30.604339684706904</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1.3096597432158887</v>
       </c>
@@ -5531,7 +5574,7 @@
         <v>29.544601287263102</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-4.2191260245162994</v>
       </c>
@@ -5542,7 +5585,7 @@
         <v>28.464976962567633</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>6.282283992273733</v>
       </c>
@@ -5553,7 +5596,7 @@
         <v>36.929065637262461</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-3.5771527881734073</v>
       </c>
@@ -5564,7 +5607,7 @@
         <v>34.150782092087553</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2.3510867152363062</v>
       </c>
@@ -5575,7 +5618,7 @@
         <v>24.731487789264271</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-0.36059597693383694</v>
       </c>
@@ -5586,7 +5629,7 @@
         <v>30.386117031504433</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>10.993056248873472</v>
       </c>
@@ -5597,7 +5640,7 @@
         <v>31.797402084493115</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-3.1995416223071516</v>
       </c>
@@ -5608,7 +5651,7 @@
         <v>35.470083572229058</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-1.9387649684213102</v>
       </c>
@@ -5619,7 +5662,7 @@
         <v>35.259392738525158</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>10.551243763649836</v>
       </c>
@@ -5630,7 +5673,7 @@
         <v>21.317324675216813</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-1.8405264252796769</v>
       </c>
@@ -5641,7 +5684,7 @@
         <v>31.851027965016666</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>8.445295256562531</v>
       </c>
@@ -5652,7 +5695,7 @@
         <v>29.3892940526286</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>10.296822094358504</v>
       </c>
@@ -5663,7 +5706,7 @@
         <v>34.934745490058461</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>6.3769896235316992</v>
       </c>
@@ -5674,7 +5717,7 @@
         <v>27.109374444851088</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>-3.5752170928753912</v>
       </c>
@@ -5685,7 +5728,7 @@
         <v>29.37177795365557</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>4.5018635939341038</v>
       </c>
@@ -5696,7 +5739,7 @@
         <v>32.293865498798596</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>-4.748720777919516</v>
       </c>
@@ -5707,7 +5750,7 @@
         <v>29.898034943646156</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>11.179623237345368</v>
       </c>
@@ -5718,7 +5761,7 @@
         <v>29.837601200595604</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2.0115052189212292</v>
       </c>
@@ -5729,7 +5772,7 @@
         <v>27.6405664036334</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>0.8202919508330524</v>
       </c>
@@ -5740,7 +5783,7 @@
         <v>29.912534610670868</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>-3.1512063476257026</v>
       </c>
@@ -5751,7 +5794,7 @@
         <v>24.777963946322185</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>9.4592528296634555</v>
       </c>
@@ -5762,7 +5805,7 @@
         <v>27.934103828013434</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>4.4216258842498064</v>
       </c>
@@ -5773,7 +5816,7 @@
         <v>27.305070894633918</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>-0.89755902183242142</v>
       </c>
@@ -5784,7 +5827,7 @@
         <v>33.21700628259488</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>-3.1157220783643425</v>
       </c>
@@ -5795,7 +5838,7 @@
         <v>38.301687688660977</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2.4449434522539377</v>
       </c>
@@ -5806,7 +5849,7 @@
         <v>26.808322589607542</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>-2.8584248421248049</v>
       </c>
@@ -5817,7 +5860,7 @@
         <v>31.567909468119861</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>-2.7543026590719819</v>
       </c>
@@ -5828,7 +5871,7 @@
         <v>33.30534784837181</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2.1330010513775051</v>
       </c>
@@ -5839,7 +5882,7 @@
         <v>31.303988479646343</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>10.791607596445829</v>
       </c>
@@ -5850,7 +5893,7 @@
         <v>27.545037388359869</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>8.5878572615329176</v>
       </c>
@@ -5861,7 +5904,7 @@
         <v>30.955940189502837</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>9.2513358634896576</v>
       </c>
@@ -5872,7 +5915,7 @@
         <v>26.072091643083962</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2.2042188327759504</v>
       </c>
@@ -5883,7 +5926,7 @@
         <v>33.909889702855025</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>-3.4833562423009425</v>
       </c>
@@ -5894,7 +5937,7 @@
         <v>31.784860508287167</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>7.4342404664494097</v>
       </c>
@@ -5905,7 +5948,7 @@
         <v>28.647258635325347</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>-4.3334291398059577</v>
       </c>
@@ -5916,7 +5959,7 @@
         <v>29.198838689579311</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2.163134194444865</v>
       </c>
@@ -5927,7 +5970,7 @@
         <v>30.025252997387312</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>8.7179716450627893</v>
       </c>
@@ -5938,7 +5981,7 @@
         <v>25.909303275095031</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>0.76115177781321108</v>
       </c>
@@ -5949,7 +5992,7 @@
         <v>23.583662498963438</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>-3.2382839950732887</v>
       </c>
@@ -5960,7 +6003,7 @@
         <v>25.234712997237704</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>10.470300427870825</v>
       </c>
@@ -5971,7 +6014,7 @@
         <v>32.447623023310285</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>-2.2455680619459599</v>
       </c>
@@ -5982,7 +6025,7 @@
         <v>28.596392580431512</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>5.8686647829599679</v>
       </c>
@@ -5999,16 +6042,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6019,7 +6062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.36359163094311953</v>
       </c>
@@ -6030,7 +6073,7 @@
         <v>8.6627762471037206E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.97184527013450861</v>
       </c>
@@ -6041,7 +6084,7 @@
         <v>-6.5321567538214929</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3.9603894576430321E-2</v>
       </c>
@@ -6052,7 +6095,7 @@
         <v>3.583259081820839</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-0.85126580065116286</v>
       </c>
@@ -6063,7 +6106,7 @@
         <v>5.4727649969741847</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-0.61430956982076168</v>
       </c>
@@ -6074,7 +6117,7 @@
         <v>5.747508133882441</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.77367864223197103</v>
       </c>
@@ -6085,7 +6128,7 @@
         <v>11.074147499512573</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-0.6457474404014647</v>
       </c>
@@ -6096,7 +6139,7 @@
         <v>-7.7200710685889735</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-0.71735724341124296</v>
       </c>
@@ -6107,7 +6150,7 @@
         <v>9.2997525897529414</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-0.26616696361452341</v>
       </c>
@@ -6118,7 +6161,7 @@
         <v>14.723768797342148</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.54069527890533209</v>
       </c>
@@ -6129,7 +6172,7 @@
         <v>-3.6105282058048855</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-0.83137827785685658</v>
       </c>
@@ -6140,7 +6183,7 @@
         <v>-2.3922788942793423</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.46616055443882942</v>
       </c>
@@ -6151,7 +6194,7 @@
         <v>10.977626900857809</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-0.70806141430512071</v>
       </c>
@@ -6162,7 +6205,7 @@
         <v>-1.4379385931247635</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-0.12876937491819263</v>
       </c>
@@ -6173,7 +6216,7 @@
         <v>2.2594696673577745</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-0.44910119194537401</v>
       </c>
@@ -6184,7 +6227,7 @@
         <v>-7.8245973669751656</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.30500491708517075</v>
       </c>
@@ -6195,7 +6238,7 @@
         <v>8.5293000422555103</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.97153039369732141</v>
       </c>
@@ -6206,7 +6249,7 @@
         <v>6.5722862894951444</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-0.50738270813599229</v>
       </c>
@@ -6217,7 +6260,7 @@
         <v>-7.955818717631578</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.61014784267172217</v>
       </c>
@@ -6228,7 +6271,7 @@
         <v>-1.6756173612544996</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.60649335058405995</v>
       </c>
@@ -6239,7 +6282,7 @@
         <v>0.71086951082871352</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-0.66741841286420822</v>
       </c>
@@ -6250,7 +6293,7 @@
         <v>-0.96554469941949383</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.27530555054545403</v>
       </c>
@@ -6261,7 +6304,7 @@
         <v>-4.1258799102749117</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-0.29404970025643706</v>
       </c>
@@ -6272,7 +6315,7 @@
         <v>1.2094556694471232</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.34327351488173008</v>
       </c>
@@ -6283,7 +6326,7 @@
         <v>7.6125938261935122</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.79370010318234563</v>
       </c>
@@ -6294,7 +6337,7 @@
         <v>10.621640854765518</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-0.68105187499895692</v>
       </c>
@@ -6305,7 +6348,7 @@
         <v>-6.4646334999536332</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-0.54977090191096067</v>
       </c>
@@ -6316,7 +6359,7 @@
         <v>-0.49839497578415948</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-0.90479678846895695</v>
       </c>
@@ -6327,7 +6370,7 @@
         <v>7.8499819547425282</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-0.90125111537054181</v>
       </c>
@@ -6338,7 +6381,7 @@
         <v>1.0658900941315337</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0.83109935559332371</v>
       </c>
@@ -6349,7 +6392,7 @@
         <v>1.6559956411446697</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1.6331427730619907E-2</v>
       </c>
@@ -6360,7 +6403,7 @@
         <v>2.3805003741675348</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0.62302626250311732</v>
       </c>
@@ -6371,7 +6414,7 @@
         <v>2.9142340778947133</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-0.43632820434868336</v>
       </c>
@@ -6382,7 +6425,7 @@
         <v>5.6989875875351039</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-2.3402759805321693E-2</v>
       </c>
@@ -6393,7 +6436,7 @@
         <v>14.679141504175288</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-0.44957623537629843</v>
       </c>
@@ -6404,7 +6447,7 @@
         <v>3.5334724284999024</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0.87047397764399648</v>
       </c>
@@ -6415,7 +6458,7 @@
         <v>3.6022417901553814</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-0.7338174544274807</v>
       </c>
@@ -6426,7 +6469,7 @@
         <v>-1.7405417545007897</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-0.17718007601797581</v>
       </c>
@@ -6437,7 +6480,7 @@
         <v>1.4384357612554544</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-0.33001262461766601</v>
       </c>
@@ -6448,7 +6491,7 @@
         <v>7.1071609093295862</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0.46761380927637219</v>
       </c>
@@ -6459,7 +6502,7 @@
         <v>4.916234351839643</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0.71861227042973042</v>
       </c>
@@ -6470,7 +6513,7 @@
         <v>2.6106192357844775</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-9.2623035423457623E-2</v>
       </c>
@@ -6481,7 +6524,7 @@
         <v>-9.375873132679386</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0.37253941735252738</v>
       </c>
@@ -6492,7 +6535,7 @@
         <v>-2.2158303333219438</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-0.74308552918955684</v>
       </c>
@@ -6503,7 +6546,7 @@
         <v>4.0487040046144003</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0.24518095562234521</v>
       </c>
@@ -6514,7 +6557,7 @@
         <v>-3.4774117898311356</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0.78923304239287972</v>
       </c>
@@ -6525,7 +6568,7 @@
         <v>3.2643652169841975</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0.45935158105567098</v>
       </c>
@@ -6536,7 +6579,7 @@
         <v>-1.5086690565216125</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0.18388816341757774</v>
       </c>
@@ -6547,7 +6590,7 @@
         <v>-0.56769785140077245</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0.15900868410244584</v>
       </c>
@@ -6558,7 +6601,7 @@
         <v>3.8108704615557816</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0.3158766021952033</v>
       </c>
@@ -6569,7 +6612,7 @@
         <v>4.3198879929555947</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>8.8737756013870239E-3</v>
       </c>
@@ -6580,7 +6623,7 @@
         <v>9.3417453349781034</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0.62643357831984758</v>
       </c>
@@ -6591,7 +6634,7 @@
         <v>4.8686507934960961</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-0.83873944543302059</v>
       </c>
@@ -6602,7 +6645,7 @@
         <v>4.4828604137044845</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0.86116907000541687</v>
       </c>
@@ -6613,7 +6656,7 @@
         <v>5.7059596348241461</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0.40670186700299382</v>
       </c>
@@ -6624,7 +6667,7 @@
         <v>3.639066590957114</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-0.23330902960151434</v>
       </c>
@@ -6635,7 +6678,7 @@
         <v>9.0159702486501416</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-0.69512966135516763</v>
       </c>
@@ -6646,7 +6689,7 @@
         <v>0.85724942866864784</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-0.63488605478778481</v>
       </c>
@@ -6657,7 +6700,7 @@
         <v>7.1189934190094357</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>0.96147732436656952</v>
       </c>
@@ -6668,7 +6711,7 @@
         <v>4.2594060853393856</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-0.74943805811926723</v>
       </c>
@@ -6679,7 +6722,7 @@
         <v>2.1146648287164265</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-0.11542935855686665</v>
       </c>
@@ -6690,7 +6733,7 @@
         <v>1.0979667811864549</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>0.89925039419904351</v>
       </c>
@@ -6701,7 +6744,7 @@
         <v>2.9517089703003228</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>0.74617732595652342</v>
       </c>
@@ -6712,7 +6755,7 @@
         <v>-3.0670539223396798</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-0.23153797956183553</v>
       </c>
@@ -6723,7 +6766,7 @@
         <v>9.2163408168130871</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-2.3672472219914198E-2</v>
       </c>
@@ -6734,7 +6777,7 @@
         <v>5.9346785810045803</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-0.11920866696164012</v>
       </c>
@@ -6745,7 +6788,7 @@
         <v>0.26036386099032871</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-0.99805528856813908</v>
       </c>
@@ -6756,7 +6799,7 @@
         <v>11.790025841495472</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-0.50357533898204565</v>
       </c>
@@ -6767,7 +6810,7 @@
         <v>6.9250042589929741</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>0.9491922864690423</v>
       </c>
@@ -6778,7 +6821,7 @@
         <v>2.5084148686804535</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-0.49167500948533416</v>
       </c>
@@ -6789,7 +6832,7 @@
         <v>-2.8598582828833354</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-0.78559133596718311</v>
       </c>
@@ -6800,7 +6843,7 @@
         <v>4.6977265808321178</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>-0.28745014639571309</v>
       </c>
@@ -6811,7 +6854,7 @@
         <v>1.0843503384098581</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>-0.39158194558694959</v>
       </c>
@@ -6822,7 +6865,7 @@
         <v>-5.4278861919517114</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>0.91547405952587724</v>
       </c>
@@ -6833,7 +6876,7 @@
         <v>-3.0159890142469372</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>-0.67437186278402805</v>
       </c>
@@ -6844,7 +6887,7 @@
         <v>7.6189294331885247</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>4.7873137518763542E-2</v>
       </c>
@@ -6855,7 +6898,7 @@
         <v>2.1194709166046191</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>-0.40340882306918502</v>
       </c>
@@ -6866,7 +6909,7 @@
         <v>0.25747879255842543</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>0.76532534928992391</v>
       </c>
@@ -6877,7 +6920,7 @@
         <v>5.3885934828458844</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>-0.44011502573266625</v>
       </c>
@@ -6888,7 +6931,7 @@
         <v>14.232185845056037</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>-0.51859367778524756</v>
       </c>
@@ -6899,7 +6942,7 @@
         <v>-7.3126629514774191</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>0.88180690538138151</v>
       </c>
@@ -6910,7 +6953,7 @@
         <v>-0.84193708330069805</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>-0.32103370223194361</v>
       </c>
@@ -6921,7 +6964,7 @@
         <v>3.4170360361580654</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>0.34514461550861597</v>
       </c>
@@ -6932,7 +6975,7 @@
         <v>0.1014174873103042</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>-0.32949334662407637</v>
       </c>
@@ -6943,7 +6986,7 @@
         <v>0.36341817371273955</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>-0.70460126316174865</v>
       </c>
@@ -6954,7 +6997,7 @@
         <v>5.4262018620690142</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>-0.1134475888684392</v>
       </c>
@@ -6965,7 +7008,7 @@
         <v>-4.6836563890654066</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>-3.6393376532942057E-2</v>
       </c>
@@ -6976,7 +7019,7 @@
         <v>-4.0099733908108028</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>-0.67703330144286156</v>
       </c>
@@ -6987,7 +7030,7 @@
         <v>1.1140893009176644</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>-0.29854557570070028</v>
       </c>
@@ -6998,7 +7041,7 @@
         <v>3.5542608143331633</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>0.13310602819547057</v>
       </c>
@@ -7009,7 +7052,7 @@
         <v>-7.9123843668968874</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>-0.21965072955936193</v>
       </c>
@@ -7020,7 +7063,7 @@
         <v>15.627952314447748</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>6.6169365309178829E-3</v>
       </c>
@@ -7031,7 +7074,7 @@
         <v>11.8634471867505</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>0.54358511278405786</v>
       </c>
@@ -7042,7 +7085,7 @@
         <v>4.6521853854082442</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>0.7160589131526649</v>
       </c>
@@ -7053,7 +7096,7 @@
         <v>4.0144149900669062</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>0.30471074860543013</v>
       </c>
@@ -7064,7 +7107,7 @@
         <v>0.33995697114815226</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>0.43006542371585965</v>
       </c>
@@ -7075,7 +7118,7 @@
         <v>-6.8057857630608609</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>-0.9540595319122076</v>
       </c>
@@ -7086,7 +7129,7 @@
         <v>2.688946324362393</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>-0.10963907605037093</v>
       </c>
@@ -7097,7 +7140,7 @@
         <v>-1.1223927257498385</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>0.42121276678517461</v>
       </c>
@@ -7108,7 +7151,7 @@
         <v>-2.518392714746815</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>0.59682200662791729</v>
       </c>
@@ -7125,16 +7168,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7145,7 +7188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.452170480042696</v>
       </c>
@@ -7156,7 +7199,7 @@
         <v>-0.48543710911285176</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-0.1340044024400413</v>
       </c>
@@ -7167,7 +7210,7 @@
         <v>1.5499010986909094</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.19466332392767072</v>
       </c>
@@ -7178,7 +7221,7 @@
         <v>3.2734828635492592</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-0.48627394437789917</v>
       </c>
@@ -7189,7 +7232,7 @@
         <v>-0.94924683020882261</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-0.723357527051121</v>
       </c>
@@ -7200,7 +7243,7 @@
         <v>2.5233952379135625</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-2.0059801638126373E-2</v>
       </c>
@@ -7211,7 +7254,7 @@
         <v>4.5824692334646864</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-0.10363636957481503</v>
       </c>
@@ -7222,7 +7265,7 @@
         <v>-0.49328048025292226</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.29855565773323178</v>
       </c>
@@ -7233,7 +7276,7 @@
         <v>4.8904067208814306</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.19940446224063635</v>
       </c>
@@ -7244,7 +7287,7 @@
         <v>5.4541540402713418E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-5.6580665986984968E-2</v>
       </c>
@@ -7255,7 +7298,7 @@
         <v>0.3472234410246493</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.40326399449259043</v>
       </c>
@@ -7266,7 +7309,7 @@
         <v>-8.1149523569997157</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-0.10796840768307447</v>
       </c>
@@ -7277,7 +7320,7 @@
         <v>4.2199622594283976</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-0.14237948274239898</v>
       </c>
@@ -7288,7 +7331,7 @@
         <v>0.28991496053856514</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.53008838230744004</v>
       </c>
@@ -7299,7 +7342,7 @@
         <v>4.0965022884491322</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-0.61944456305354834</v>
       </c>
@@ -7310,7 +7353,7 @@
         <v>5.3823863460635204</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.21268754871562123</v>
       </c>
@@ -7321,7 +7364,7 @@
         <v>2.6105022256609347</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.43069901503622532</v>
       </c>
@@ -7332,7 +7375,7 @@
         <v>1.4356534648255248</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-9.1191412881016731E-2</v>
       </c>
@@ -7343,7 +7386,7 @@
         <v>-0.77314738888670131</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.81655716523528099</v>
       </c>
@@ -7354,7 +7397,7 @@
         <v>3.1375106946334737</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-0.95048214355483651</v>
       </c>
@@ -7365,7 +7408,7 @@
         <v>-1.6057549785817171</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-0.89285349752753973</v>
       </c>
@@ -7376,7 +7419,7 @@
         <v>1.1318552456728319</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.25158865517005324</v>
       </c>
@@ -7387,7 +7430,7 @@
         <v>0.72644629768336322</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.5603133556433022</v>
       </c>
@@ -7398,7 +7441,7 @@
         <v>0.63761144485807097</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.13028391450643539</v>
       </c>
@@ -7409,7 +7452,7 @@
         <v>2.1667012060999564</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.72613542666658759</v>
       </c>
@@ -7420,7 +7463,7 @@
         <v>1.9390433944383185</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.12268855469301343</v>
       </c>
@@ -7431,7 +7474,7 @@
         <v>1.1762839326705334</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0.83354855608195066</v>
       </c>
@@ -7442,7 +7485,7 @@
         <v>1.7764250002800779</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-0.67643222445622087</v>
       </c>
@@ -7453,7 +7496,7 @@
         <v>2.007820739671228</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-0.8097081258893013</v>
       </c>
@@ -7464,7 +7507,7 @@
         <v>7.4443103345476409</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-0.47350668348371983</v>
       </c>
@@ -7475,7 +7518,7 @@
         <v>3.5994523918017292</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-0.30223026359453797</v>
       </c>
@@ -7486,7 +7529,7 @@
         <v>2.3037047102258956E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-0.76939072972163558</v>
       </c>
@@ -7497,7 +7540,7 @@
         <v>3.7460506768413167</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0.90380215086042881</v>
       </c>
@@ -7508,7 +7551,7 @@
         <v>4.5225454049632834</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-0.91573808621615171</v>
       </c>
@@ -7519,7 +7562,7 @@
         <v>-0.70642021902687357</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0.51807262469083071</v>
       </c>
@@ -7530,7 +7573,7 @@
         <v>6.2284567947260605</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0.15941588813439012</v>
       </c>
@@ -7541,7 +7584,7 @@
         <v>-0.92557893526288426</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0.55611029407009482</v>
       </c>
@@ -7552,7 +7595,7 @@
         <v>1.4320996268943615</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0.16691019246354699</v>
       </c>
@@ -7563,7 +7606,7 @@
         <v>-2.0664939837937997</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0.80523174582049251</v>
       </c>
@@ -7574,7 +7617,7 @@
         <v>3.9410682856962729</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0.75199025962501764</v>
       </c>
@@ -7585,7 +7628,7 @@
         <v>1.5595996032873969</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5.0042028073221445E-2</v>
       </c>
@@ -7596,7 +7639,7 @@
         <v>5.3720108763570078</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-0.56078524701297283</v>
       </c>
@@ -7607,7 +7650,7 @@
         <v>-1.8963127424614976</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>9.6740443259477615E-3</v>
       </c>
@@ -7618,7 +7661,7 @@
         <v>-2.743222622168183</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-0.51630201889201999</v>
       </c>
@@ -7629,7 +7672,7 @@
         <v>4.7003606493020147</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>-0.6852071494795382</v>
       </c>
@@ -7640,7 +7683,7 @@
         <v>5.7204633425030984</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>-0.82813141448423266</v>
       </c>
@@ -7651,7 +7694,7 @@
         <v>2.5921543107568081</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-0.52341762650758028</v>
       </c>
@@ -7662,7 +7705,7 @@
         <v>2.4340396356743801</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0.13082150369882584</v>
       </c>
@@ -7673,7 +7716,7 @@
         <v>1.9215324628682884</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0.26077102497220039</v>
       </c>
@@ -7684,7 +7727,7 @@
         <v>1.6568291925534542</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0.64872594829648733</v>
       </c>
@@ -7695,7 +7738,7 @@
         <v>3.0172826023241384</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0.9195930645801127</v>
       </c>
@@ -7706,7 +7749,7 @@
         <v>4.7350902663378474</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-0.49238098366186023</v>
       </c>
@@ -7717,7 +7760,7 @@
         <v>3.3129443385346775</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-0.53906348533928394</v>
       </c>
@@ -7728,7 +7771,7 @@
         <v>1.633499000731383</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0.67444078531116247</v>
       </c>
@@ -7739,7 +7782,7 @@
         <v>12.291527502727146</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-0.73123299377039075</v>
       </c>
@@ -7750,7 +7793,7 @@
         <v>0.63630286539133496</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>4.0208621416240931E-2</v>
       </c>
@@ -7761,7 +7804,7 @@
         <v>3.8851050346576668</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0.20120829530060291</v>
       </c>
@@ -7772,7 +7815,7 @@
         <v>2.2738269305775307</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-0.79339775489643216</v>
       </c>
@@ -7783,7 +7826,7 @@
         <v>-2.048928087236483</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-0.67412774497643113</v>
       </c>
@@ -7794,7 +7837,7 @@
         <v>-0.79415321857232657</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>6.2287440989166498E-2</v>
       </c>
@@ -7805,7 +7848,7 @@
         <v>3.7486494385013653</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-0.99456269247457385</v>
       </c>
@@ -7816,7 +7859,7 @@
         <v>1.5594093613886699</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-0.67161274561658502</v>
       </c>
@@ -7827,7 +7870,7 @@
         <v>3.55040695470408</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>0.40199165279045701</v>
       </c>
@@ -7838,7 +7881,7 @@
         <v>-0.24186700487645529</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-0.89788376027718186</v>
       </c>
@@ -7849,7 +7892,7 @@
         <v>-5.4092857678578774</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>0.74579944321885705</v>
       </c>
@@ -7857,7 +7900,7 @@
         <v>4.4838140606805066</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-0.93829370383173227</v>
       </c>
@@ -7865,7 +7908,7 @@
         <v>4.6085604127436248</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>0.72852103784680367</v>
       </c>
@@ -7873,7 +7916,7 @@
         <v>2.3238140877155589</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-0.87632453348487616</v>
       </c>
@@ -7881,7 +7924,7 @@
         <v>1.8193648630738588</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>0.66987115051597357</v>
       </c>
@@ -7889,7 +7932,7 @@
         <v>3.4988339390261309</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>0.57747174287214875</v>
       </c>
@@ -7897,7 +7940,7 @@
         <v>4.7654896274804059</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>0.32245223596692085</v>
       </c>
@@ -7905,7 +7948,7 @@
         <v>1.0243667678413384</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>-0.77178766438737512</v>
       </c>
@@ -7913,7 +7956,7 @@
         <v>-3.4509695161347134</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>-0.16949805105105042</v>
       </c>
@@ -7921,7 +7964,7 @@
         <v>0.63053928307480778</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>0.15976217202842236</v>
       </c>
@@ -7929,7 +7972,7 @@
         <v>-0.73276278597211908</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>-0.39100857637822628</v>
       </c>
@@ -7937,7 +7980,7 @@
         <v>-0.25973917881307607</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>0.89577847672626376</v>
       </c>
@@ -7945,7 +7988,7 @@
         <v>-2.3882022930905187</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>0.85644218558445573</v>
       </c>
@@ -7953,7 +7996,7 @@
         <v>0.28247918590619681</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>0.66250166576355696</v>
       </c>
@@ -7961,7 +8004,7 @@
         <v>6.1810423732708699</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>-0.67982739536091685</v>
       </c>
@@ -7969,7 +8012,7 @@
         <v>0.39222087523832316</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>0.89041396183893085</v>
       </c>
@@ -7977,7 +8020,7 @@
         <v>2.1962539484456172</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>-0.83595153968781233</v>
       </c>
@@ -7985,7 +8028,7 @@
         <v>1.5910845827649069</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>-0.94862987333908677</v>
       </c>
@@ -7993,7 +8036,7 @@
         <v>1.0278223869726009</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>0.13916152063757181</v>
       </c>
@@ -8001,7 +8044,7 @@
         <v>-1.1622330169627246</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>-0.57500895811244845</v>
       </c>
@@ -8009,7 +8052,7 @@
         <v>-4.1856480592573639</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>0.74684106279164553</v>
       </c>
@@ -8017,7 +8060,7 @@
         <v>4.9165554958408748</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>-0.60450443904846907</v>
       </c>
@@ -8025,7 +8068,7 @@
         <v>-1.6028850072498058</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>0.97848660824820399</v>
       </c>
@@ -8033,7 +8076,7 @@
         <v>5.6705179374139405</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>0.71130752703174949</v>
       </c>
@@ -8041,7 +8084,7 @@
         <v>3.6237825996778605</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>-0.22101033898070455</v>
       </c>
@@ -8049,7 +8092,7 @@
         <v>0.63030114342070198</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>-0.18954254686832428</v>
       </c>
@@ -8057,27 +8100,27 @@
         <v>7.34007393652033</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C92">
         <v>5.3913070104862815</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C93">
         <v>1.3766429619602181</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C94">
         <v>-1.3442542646786197</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C95">
         <v>5.1838650542895479</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C96">
         <v>7.1082720778986364E-2</v>
       </c>
@@ -8088,16 +8131,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8108,7 +8151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>8.0093503464013338E-2</v>
       </c>
@@ -8119,7 +8162,7 @@
         <v>1.7163662129251307</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.16199338668957353</v>
       </c>
@@ -8130,7 +8173,7 @@
         <v>-2.7925867344776201E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-0.48631986184045672</v>
       </c>
@@ -8141,7 +8184,7 @@
         <v>2.3237839572508632</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.74684051284566522</v>
       </c>
@@ -8152,7 +8195,7 @@
         <v>-3.3305620695046212</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-0.72944662859663367</v>
       </c>
@@ -8163,7 +8206,7 @@
         <v>2.8034527307329231</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-0.33154741814360023</v>
       </c>
@@ -8174,7 +8217,7 @@
         <v>11.366580385162118</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-0.99414203502237797</v>
       </c>
@@ -8185,7 +8228,7 @@
         <v>0.38159461005951112</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-0.31682031601667404</v>
       </c>
@@ -8196,7 +8239,7 @@
         <v>-2.4106102339250279</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.84487709496170282</v>
       </c>
@@ -8207,7 +8250,7 @@
         <v>2.5013416316457326</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.55557087529450655</v>
       </c>
@@ -8218,7 +8261,7 @@
         <v>8.7428674300416844</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-0.21711918618530035</v>
       </c>
@@ -8229,7 +8272,7 @@
         <v>4.602583754982307</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.1665140544064343</v>
       </c>
@@ -8240,7 +8283,7 @@
         <v>4.8338349696504412</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2.8773817233741283E-2</v>
       </c>
@@ -8251,7 +8294,7 @@
         <v>3.6880443917026069</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.48761892504990101</v>
       </c>
@@ -8262,7 +8305,7 @@
         <v>0.51008166966764334</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.94201776757836342</v>
       </c>
@@ -8273,7 +8316,7 @@
         <v>0.34829777127000838</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.40544745419174433</v>
       </c>
@@ -8284,7 +8327,7 @@
         <v>0.87681142572917881</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.67275186954066157</v>
       </c>
@@ -8295,7 +8338,7 @@
         <v>-1.7247285882397234</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.97827089391648769</v>
       </c>
@@ -8306,7 +8349,7 @@
         <v>2.2379850988407748</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.39467947790399194</v>
       </c>
@@ -8317,7 +8360,7 @@
         <v>-0.61033704175208436</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-4.20176787301898E-2</v>
       </c>
@@ -8328,7 +8371,7 @@
         <v>1.2675218597204108</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-3.5625739954411983E-2</v>
       </c>
@@ -8339,7 +8382,7 @@
         <v>-0.77651169399281494</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.5224052113480866</v>
       </c>
@@ -8350,7 +8393,7 @@
         <v>-2.4660216691963459</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.99361259117722511</v>
       </c>
@@ -8361,7 +8404,7 @@
         <v>3.0035367679092628</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-0.77367948275059462</v>
       </c>
@@ -8372,7 +8415,7 @@
         <v>-0.98571821417971472</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-0.20031015435233712</v>
       </c>
@@ -8383,7 +8426,7 @@
         <v>7.7885609114669432</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-0.65516535704955459</v>
       </c>
@@ -8394,7 +8437,7 @@
         <v>2.4867386119674446</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0.25060862442478538</v>
       </c>
@@ -8405,7 +8448,7 @@
         <v>-5.4156109614393877</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-0.52720658946782351</v>
       </c>
@@ -8416,7 +8459,7 @@
         <v>1.3990180999534119</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0.66984699154272676</v>
       </c>
@@ -8427,7 +8470,7 @@
         <v>5.4769901714967082</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0.5321136973798275</v>
       </c>
@@ -8438,7 +8481,7 @@
         <v>-2.0395738401556311</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.89639911195263267</v>
       </c>
@@ -8449,7 +8492,7 @@
         <v>1.0837358989469261</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-0.58040676731616259</v>
       </c>
@@ -8460,7 +8503,7 @@
         <v>-2.4286874257108568</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3.5661755129694939E-2</v>
       </c>
@@ -8471,7 +8514,7 @@
         <v>-0.55498022756829624</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-0.89861255837604403</v>
       </c>
@@ -8482,7 +8525,7 @@
         <v>1.2175595052544654</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-0.18612442584708333</v>
       </c>
@@ -8493,7 +8536,7 @@
         <v>1.0439833654598198</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0.66257254872471094</v>
       </c>
@@ -8504,7 +8547,7 @@
         <v>1.1610778814711513</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0.49292089603841305</v>
       </c>
@@ -8515,7 +8558,7 @@
         <v>1.5821747229127037</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-0.56760674016550183</v>
       </c>
@@ -8526,7 +8569,7 @@
         <v>-0.47691390006313616</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-9.3824276234954596E-2</v>
       </c>
@@ -8537,7 +8580,7 @@
         <v>7.4600801535595744</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0.39537435816600919</v>
       </c>
@@ -8548,7 +8591,7 @@
         <v>-2.6790416965293646</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0.54842980112880468</v>
       </c>
@@ -8559,7 +8602,7 @@
         <v>1.4450882376534382</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0.61749577708542347</v>
       </c>
@@ -8570,7 +8613,7 @@
         <v>-3.8365075414947398</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0.54747396288439631</v>
       </c>
@@ -8581,7 +8624,7 @@
         <v>4.8678833685391094</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-0.73767088493332267</v>
       </c>
@@ -8592,7 +8635,7 @@
         <v>-0.47095106436383194</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>-0.92297515459358692</v>
       </c>
@@ -8603,7 +8646,7 @@
         <v>4.023523655195449</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>7.4458953458815813E-2</v>
       </c>
@@ -8614,7 +8657,7 @@
         <v>6.7783405470233316E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-0.57492541288957</v>
       </c>
@@ -8625,7 +8668,7 @@
         <v>2.8722266439330886</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>-6.8510565906763077E-2</v>
       </c>
@@ -8636,7 +8679,7 @@
         <v>7.1009227157134891</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>-0.28184405760839581</v>
       </c>
@@ -8647,7 +8690,7 @@
         <v>-1.2554186889091787</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0.70344980852678418</v>
       </c>
@@ -8658,7 +8701,7 @@
         <v>6.5744319871665731</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-0.64072939055040479</v>
       </c>
@@ -8669,7 +8712,7 @@
         <v>4.6595267559079829</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-0.45498793479055166</v>
       </c>
@@ -8680,7 +8723,7 @@
         <v>-3.49661621749578</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-0.49746082397177815</v>
       </c>
@@ -8691,7 +8734,7 @@
         <v>0.23353169247235872</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-0.79298937367275357</v>
       </c>
@@ -8702,7 +8745,7 @@
         <v>4.5331624385461868</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2.9823282267898321E-2</v>
       </c>
@@ -8713,7 +8756,7 @@
         <v>3.2611753557184255</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0.15788682131096721</v>
       </c>
@@ -8724,7 +8767,7 @@
         <v>12.23548149681692</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-0.18034154176712036</v>
       </c>
@@ -8735,7 +8778,7 @@
         <v>3.7523647867822976</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>7.1468819864094257E-2</v>
       </c>
@@ -8746,7 +8789,7 @@
         <v>2.8736489682629518</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>0.62121150037273765</v>
       </c>
@@ -8757,7 +8800,7 @@
         <v>3.5305706180329035</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0.6848024926148355</v>
       </c>
@@ -8768,7 +8811,7 @@
         <v>-8.9530887261953573E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>3.4382419660687447E-2</v>
       </c>
@@ -8779,7 +8822,7 @@
         <v>4.5566783970138358</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-0.52104663662612438</v>
       </c>
@@ -8790,7 +8833,7 @@
         <v>-1.1439859253370628</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-0.59131938172504306</v>
       </c>
@@ -8801,7 +8844,7 @@
         <v>7.5004459394589622</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-0.15671888738870621</v>
       </c>
@@ -8812,7 +8855,7 @@
         <v>4.0413579230816303</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-0.34360833279788494</v>
       </c>
@@ -8823,7 +8866,7 @@
         <v>-7.9070414453607629E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-0.96475013345479965</v>
       </c>
@@ -8834,7 +8877,7 @@
         <v>1.1161705438286038</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-0.49169104592874646</v>
       </c>
@@ -8845,7 +8888,7 @@
         <v>-2.2959322061641227</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>0.86315038474276662</v>
       </c>
@@ -8856,7 +8899,7 @@
         <v>0.2559696530743365</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>0.79490937385708094</v>
       </c>
@@ -8867,7 +8910,7 @@
         <v>1.2182089879014499</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-0.28109734924510121</v>
       </c>
@@ -8878,7 +8921,7 @@
         <v>3.5626996589080036</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-2.0245212130248547E-2</v>
       </c>
@@ -8889,7 +8932,7 @@
         <v>-2.4949518612992438</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>0.64962319564074278</v>
       </c>
@@ -8900,7 +8943,7 @@
         <v>2.8224276408632685</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>0.61335185868665576</v>
       </c>
@@ -8911,7 +8954,7 @@
         <v>5.812447278386597</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>0.23247217573225498</v>
       </c>
@@ -8922,7 +8965,7 @@
         <v>6.2545795080217736</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>0.97490011947229505</v>
       </c>
@@ -8933,7 +8976,7 @@
         <v>3.5785282631269588</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>0.9424279872328043</v>
       </c>
@@ -8944,7 +8987,7 @@
         <v>-0.51920862856878136</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>0.91400898201391101</v>
       </c>
@@ -8955,7 +8998,7 @@
         <v>0.12318743256989095</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>0.16684891749173403</v>
       </c>
@@ -8966,7 +9009,7 @@
         <v>1.2102214407258964</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>-1.258772611618042E-2</v>
       </c>
@@ -8977,7 +9020,7 @@
         <v>-2.1352479248146299</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>0.10263760667294264</v>
       </c>
@@ -8988,7 +9031,7 @@
         <v>0.55886644184611423</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>0.16722932690754533</v>
       </c>
@@ -8999,7 +9042,7 @@
         <v>2.246536290562136</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>0.77403433294966817</v>
       </c>
@@ -9010,7 +9053,7 @@
         <v>4.1447087145441017</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>0.35033477935940027</v>
       </c>
@@ -9021,7 +9064,7 @@
         <v>-1.9310260612802086</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>0.16168027510866523</v>
       </c>
@@ -9032,7 +9075,7 @@
         <v>-3.6860652785245529</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>-0.88032491644844413</v>
       </c>
@@ -9043,7 +9086,7 @@
         <v>9.097907451797635</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>3.013088321313262E-2</v>
       </c>
@@ -9054,7 +9097,7 @@
         <v>7.3626192206546577</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>0.31716539151966572</v>
       </c>
@@ -9065,7 +9108,7 @@
         <v>0.26601154094268797</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>-0.8461082736030221</v>
       </c>
@@ -9076,7 +9119,7 @@
         <v>6.3641886299507746</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>0.74031557003036141</v>
       </c>
@@ -9087,7 +9130,7 @@
         <v>-0.50461661673693214</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>-9.6281265374273062E-2</v>
       </c>
@@ -9098,7 +9141,7 @@
         <v>3.299576953426</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>0.39803602080792189</v>
       </c>
@@ -9109,7 +9152,7 @@
         <v>-2.0645247079924722</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>-0.41559979971498251</v>
       </c>
@@ -9120,7 +9163,7 @@
         <v>5.4100073134973226</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>0.45732934540137649</v>
       </c>
@@ -9131,7 +9174,7 @@
         <v>1.6127393108862331</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>-0.31537051824852824</v>
       </c>
@@ -9142,7 +9185,7 @@
         <v>5.1981763293437391</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>0.50438046641647816</v>
       </c>
@@ -9153,7 +9196,7 @@
         <v>-0.18858409983276125</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>0.4221029388718307</v>
       </c>
@@ -9164,7 +9207,7 @@
         <v>3.8378372799990941</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>-0.36339520895853639</v>
       </c>
@@ -9175,7 +9218,7 @@
         <v>6.7373512829474729</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>-0.26900298101827502</v>
       </c>
@@ -9186,7 +9229,7 @@
         <v>1.2454847130228939</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>0.64875501440837979</v>
       </c>
@@ -9197,7 +9240,7 @@
         <v>1.7335114012627915</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>-0.34724089922383428</v>
       </c>
@@ -9214,16 +9257,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9234,7 +9277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-1.5849695194255982</v>
       </c>
@@ -9245,7 +9288,7 @@
         <v>0.61240248821421805</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.44223816541852856</v>
       </c>
@@ -9256,7 +9299,7 @@
         <v>-2.1149167714948609</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-0.8576081422503139</v>
       </c>
@@ -9267,7 +9310,7 @@
         <v>2.7502665672485489</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-0.96276730478637096</v>
       </c>
@@ -9278,7 +9321,7 @@
         <v>-0.81528214007710131</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-1.7329985460025474</v>
       </c>
@@ -9289,7 +9332,7 @@
         <v>6.1888822431155548</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-1.2700085752970551</v>
       </c>
@@ -9300,7 +9343,7 @@
         <v>1.8986656579677548</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-2.2736066863927888</v>
       </c>
@@ -9311,7 +9354,7 @@
         <v>6.0224362118616668</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-2.2508692787147462</v>
       </c>
@@ -9322,7 +9365,7 @@
         <v>2.4062241440591241</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-2.3780195122015808</v>
       </c>
@@ -9333,7 +9376,7 @@
         <v>7.844367146307766</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-1.7768985264381447</v>
       </c>
@@ -9344,7 +9387,7 @@
         <v>-0.10551449035058713</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-1.6710921915071653</v>
       </c>
@@ -9355,7 +9398,7 @@
         <v>-2.7562500913642607</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1.3775005770532185</v>
       </c>
@@ -9366,7 +9409,7 @@
         <v>0.31409083748373368</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-1.1678984891867916</v>
       </c>
@@ -9377,7 +9420,7 @@
         <v>3.8385116932880643</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-1.3786121006491294</v>
       </c>
@@ -9388,7 +9431,7 @@
         <v>-2.6302005302156148</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-1.7479366238689367</v>
       </c>
@@ -9399,7 +9442,7 @@
         <v>1.3480013134106734</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-0.34400693210116184</v>
       </c>
@@ -9410,7 +9453,7 @@
         <v>0.66151383779644624</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1.9017031259588979E-2</v>
       </c>
@@ -9421,7 +9464,7 @@
         <v>4.9052373086340362</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-1.3811008067044301</v>
       </c>
@@ -9432,7 +9475,7 @@
         <v>3.5119703314942168</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-0.98226125327028524</v>
       </c>
@@ -9443,7 +9486,7 @@
         <v>2.7672383779262768</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-2.3473720378289586</v>
       </c>
@@ -9454,7 +9497,7 @@
         <v>-0.71641115162029534</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-1.11572443002586</v>
       </c>
@@ -9465,7 +9508,7 @@
         <v>0.54615219521394831</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-0.72342956138037451</v>
       </c>
@@ -9476,7 +9519,7 @@
         <v>4.0366725834108914</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-2.1766448739389372</v>
       </c>
@@ -9487,7 +9530,7 @@
         <v>5.7586143353945127</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-0.77610106265789092</v>
       </c>
@@ -9498,7 +9541,7 @@
         <v>-1.5864469496003357</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-1.8372216392504019</v>
       </c>
@@ -9509,7 +9552,7 @@
         <v>5.2505704964118509</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-0.20579320783657373</v>
       </c>
@@ -9520,7 +9563,7 @@
         <v>-0.37587990917509462</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-0.49964555083108053</v>
       </c>
@@ -9531,7 +9574,7 @@
         <v>1.5252966373129642</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-0.12330123339984289</v>
       </c>
@@ -9542,7 +9585,7 @@
         <v>3.4384491445830587</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0.10722665551900179</v>
       </c>
@@ -9553,7 +9596,7 @@
         <v>1.1765794028821692</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-1.2128862701731045</v>
       </c>
@@ -9564,7 +9607,7 @@
         <v>10.685801871468678</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-3.8992745507712478E-2</v>
       </c>
@@ -9575,7 +9618,7 @@
         <v>3.0555038325992046</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-2.792610789477981</v>
       </c>
@@ -9586,7 +9629,7 @@
         <v>3.7010717848236063</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0.49891829701155466</v>
       </c>
@@ -9597,7 +9640,7 @@
         <v>-1.8205183030308638</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-1.755262113129626</v>
       </c>
@@ -9608,7 +9651,7 @@
         <v>1.8565448819303085</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0.11484057816582105</v>
       </c>
@@ -9619,7 +9662,7 @@
         <v>1.5443336607274722</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-1.4199544622081848</v>
       </c>
@@ -9630,7 +9673,7 @@
         <v>0.91009041839732796</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0.1984314075267688</v>
       </c>
@@ -9641,7 +9684,7 @@
         <v>3.7526696054248854</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-1.6676276871647633</v>
       </c>
@@ -9652,7 +9695,7 @@
         <v>-9.3881032115914476E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-0.29387322567246532</v>
       </c>
@@ -9663,7 +9706,7 @@
         <v>1.5002671440280282</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-2.6068070774748184</v>
       </c>
@@ -9674,7 +9717,7 @@
         <v>1.6583140520289283</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-1.0626756263203829</v>
       </c>
@@ -9685,7 +9728,7 @@
         <v>-6.6153591703137717</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-0.8084332187162977</v>
       </c>
@@ -9696,7 +9739,7 @@
         <v>-2.2886381874163906</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-1.99045986423606</v>
       </c>
@@ -9707,7 +9750,7 @@
         <v>-0.44281091521280658</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-1.1538756310653986</v>
       </c>
@@ -9718,7 +9761,7 @@
         <v>-2.0513807324306921</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>-1.1472976755147615</v>
       </c>
@@ -9729,7 +9772,7 @@
         <v>8.4371483991324538</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>-2.6295738013391246</v>
       </c>
@@ -9740,7 +9783,7 @@
         <v>6.9843165194493988</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-1.0177346175053892</v>
       </c>
@@ -9751,7 +9794,7 @@
         <v>3.9274294101233238</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>-0.63534021591048018</v>
       </c>
@@ -9762,7 +9805,7 @@
         <v>-1.0552490849273282</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>-0.91365060457967229</v>
       </c>
@@ -9773,7 +9816,7 @@
         <v>0.84239930477599989</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-1.9258080348556779</v>
       </c>
@@ -9784,7 +9827,7 @@
         <v>-0.33617571227927678</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-0.77769021892073653</v>
       </c>
@@ -9795,7 +9838,7 @@
         <v>1.5712069341425816</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-2.4062157816193315</v>
       </c>
@@ -9806,7 +9849,7 @@
         <v>6.4299456550563896</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>0.10151130289535848</v>
       </c>
@@ -9817,7 +9860,7 @@
         <v>1.2898072092977366</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-1.1052956461341297</v>
       </c>
@@ -9828,7 +9871,7 @@
         <v>0.65836424240433855</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-0.57953477264619147</v>
       </c>
@@ -9839,7 +9882,7 @@
         <v>2.9115538650440218</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-0.5858828459881098</v>
       </c>
@@ -9850,7 +9893,7 @@
         <v>1.379591345550792</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-1.6246536385003454</v>
       </c>
@@ -9861,7 +9904,7 @@
         <v>1.3077714438287138</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-2.2123768502947723</v>
       </c>
@@ -9872,7 +9915,7 @@
         <v>-1.6794531678098785</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1.5697745019048557</v>
       </c>
@@ -9883,7 +9926,7 @@
         <v>0.78772631389747438</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-1.0671486847863136</v>
       </c>
@@ -9894,7 +9937,7 @@
         <v>4.3802639974344224</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-0.22676219269466635</v>
       </c>
@@ -9905,7 +9948,7 @@
         <v>1.146478881055139</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-1.1778175430570126</v>
       </c>
@@ -9916,7 +9959,7 @@
         <v>-3.1968363403444107</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-0.19874114530018261</v>
       </c>
@@ -9927,7 +9970,7 @@
         <v>5.7287062891431599</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-1.0125103000031805</v>
       </c>
@@ -9938,7 +9981,7 @@
         <v>4.1202601299671162</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-1.8893129989781696</v>
       </c>
@@ -9949,7 +9992,7 @@
         <v>-3.3477784661116106</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-1.7145284177516869</v>
       </c>
@@ -9960,7 +10003,7 @@
         <v>4.7511763254200012</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-0.27558349313317432</v>
       </c>
@@ -9971,7 +10014,7 @@
         <v>3.9271443414592326</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-0.39298190585415793</v>
       </c>
@@ -9982,7 +10025,7 @@
         <v>0.78239973367087057</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-0.6499240016944462</v>
       </c>
@@ -9993,7 +10036,7 @@
         <v>2.6772614504003913</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-1.5949687137778974</v>
       </c>
@@ -10004,7 +10047,7 @@
         <v>6.1159005675452667</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-1.8203621648493278</v>
       </c>
@@ -10015,7 +10058,7 @@
         <v>1.101728386109091E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>-0.13764455981800117</v>
       </c>
@@ -10026,7 +10069,7 @@
         <v>-1.5613594301743432</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>-0.96799619571755113</v>
       </c>
@@ -10037,7 +10080,7 @@
         <v>1.5988815522058095</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>-0.86616065259478847</v>
       </c>
@@ -10048,7 +10091,7 @@
         <v>5.5626991862071895</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>-1.5187173050371723</v>
       </c>
@@ -10059,7 +10102,7 @@
         <v>-1.0043365725718969</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>-2.0412559216338542</v>
       </c>
@@ -10070,7 +10113,7 @@
         <v>2.2711177982621553</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>-1.5186592183208973</v>
       </c>
@@ -10081,7 +10124,7 @@
         <v>1.8453298095520891</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>-0.87658070146821598</v>
       </c>
@@ -10092,7 +10135,7 @@
         <v>1.0652853011906696</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>0.44697194198419821</v>
       </c>
@@ -10103,7 +10146,7 @@
         <v>3.3370441736465604</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>-1.7292986266603971</v>
       </c>
@@ -10114,7 +10157,7 @@
         <v>2.7935881014949313</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>-2.1741219712868047</v>
       </c>
@@ -10125,7 +10168,7 @@
         <v>1.30716244038386</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>-1.0780890658618361</v>
       </c>
@@ -10136,7 +10179,7 @@
         <v>1.2137536986344017</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>-0.77788854088174042</v>
       </c>
@@ -10147,7 +10190,7 @@
         <v>7.2503582416684527</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>-2.3671144498870733</v>
       </c>
@@ -10158,7 +10201,7 @@
         <v>6.5091081866642089</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>-0.50098810833969765</v>
       </c>
@@ -10169,7 +10212,7 @@
         <v>-4.4389231840385541</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>-1.8380645047825539</v>
       </c>
@@ -10180,7 +10223,7 @@
         <v>2.4121352874668185</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>-0.12787038569579645</v>
       </c>
@@ -10191,7 +10234,7 @@
         <v>9.2388899069950341</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>-0.66615665060654794</v>
       </c>
@@ -10202,7 +10245,7 @@
         <v>3.43453957651694</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>-1.8960381410482681</v>
       </c>
@@ -10213,7 +10256,7 @@
         <v>0.16550656538556607</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>-0.9825575287152416</v>
       </c>
@@ -10224,7 +10267,7 @@
         <v>3.9881488025628196</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>-1.461084795479584</v>
       </c>
@@ -10235,7 +10278,7 @@
         <v>3.7671828366759597</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>-1.5372735002998137</v>
       </c>
@@ -10246,7 +10289,7 @@
         <v>0.2525670802810609</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>-2.1217049678610902</v>
       </c>
@@ -10257,7 +10300,7 @@
         <v>-2.7820902327748644</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>-1.6989130544995372</v>
       </c>
@@ -10268,7 +10311,7 @@
         <v>5.2493004187484873</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>-1.5563539183541015</v>
       </c>
@@ -10279,7 +10322,7 @@
         <v>3.3993829296343092</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>-1.9707696920713125</v>
       </c>
@@ -10290,7 +10333,7 @@
         <v>2.6333656443084799</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>-2.7972619595652883</v>
       </c>
@@ -10301,7 +10344,7 @@
         <v>5.3685003709666024</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>-1.230050471340002</v>
       </c>
@@ -10312,7 +10355,7 @@
         <v>-2.4909565901321873E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1.3488890042298167</v>
       </c>
@@ -10323,7 +10366,7 @@
         <v>2.9942260882317369</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>-1.2549855454151633</v>
       </c>
@@ -10340,16 +10383,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10359,8 +10402,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.39140210440382361</v>
       </c>
@@ -10370,8 +10416,11 @@
       <c r="C2">
         <v>-2.8260091280246424</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>-2.8260091280246424</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-0.52229759097099304</v>
       </c>
@@ -10381,8 +10430,11 @@
       <c r="C3">
         <v>4.6350964440527456</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>4.6350964440527456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.87596849771216512</v>
       </c>
@@ -10392,8 +10444,11 @@
       <c r="C4">
         <v>5.1018912259927447</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>5.1018912259927447</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-0.39618555177003145</v>
       </c>
@@ -10403,8 +10458,11 @@
       <c r="C5">
         <v>3.3428177087788331</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>3.3428177087788331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.19210502086207271</v>
       </c>
@@ -10414,8 +10472,11 @@
       <c r="C6">
         <v>-0.76432712954066995</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>-0.76432712954066995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-0.95668709138408303</v>
       </c>
@@ -10425,8 +10486,11 @@
       <c r="C7">
         <v>1.4273319113501595</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>1.4273319113501595</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-0.10449800547212362</v>
       </c>
@@ -10436,8 +10500,11 @@
       <c r="C8">
         <v>3.6362081593478628</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>3.6362081593478628</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-0.11936450283974409</v>
       </c>
@@ -10447,8 +10514,11 @@
       <c r="C9">
         <v>3.4473538332223832</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>3.4473538332223832</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-0.99875800916925073</v>
       </c>
@@ -10458,8 +10528,11 @@
       <c r="C10">
         <v>2.1515889369843015</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>2.1515889369843015</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.63034723000600934</v>
       </c>
@@ -10469,8 +10542,11 @@
       <c r="C11">
         <v>3.7728574446203478</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>3.7728574446203478</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.47276790346950293</v>
       </c>
@@ -10480,8 +10556,11 @@
       <c r="C12">
         <v>-1.282294628285519</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>-1.282294628285519</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.11342388717457652</v>
       </c>
@@ -10491,8 +10570,11 @@
       <c r="C13">
         <v>-1.7345299047445857</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>-1.7345299047445857</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-0.57745106145739555</v>
       </c>
@@ -10502,8 +10584,11 @@
       <c r="C14">
         <v>6.4794794073601638</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>6.4794794073601638</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.67914127837866545</v>
       </c>
@@ -10513,8 +10598,11 @@
       <c r="C15">
         <v>1.552634031417726</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>1.552634031417726</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5.958501435816288E-2</v>
       </c>
@@ -10524,8 +10612,11 @@
       <c r="C16">
         <v>2.2140103691205852</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>2.2140103691205852</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-0.38707641931250691</v>
       </c>
@@ -10535,8 +10626,11 @@
       <c r="C17">
         <v>0.41751709831185657</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>0.41751709831185657</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-0.83702964661642909</v>
       </c>
@@ -10546,8 +10640,11 @@
       <c r="C18">
         <v>-3.2379741543094109</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>-3.2379741543094109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.65515548037365079</v>
       </c>
@@ -10557,8 +10654,11 @@
       <c r="C19">
         <v>3.9855633943663351</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>3.9855633943663351</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3.3400805201381445E-2</v>
       </c>
@@ -10568,8 +10668,11 @@
       <c r="C20">
         <v>3.2276156201710213</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>3.2276156201710213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.3311811862513423</v>
       </c>
@@ -10579,8 +10682,11 @@
       <c r="C21">
         <v>-0.42746404903037449</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>-0.42746404903037449</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.71859577530995011</v>
       </c>
@@ -10590,8 +10696,11 @@
       <c r="C22">
         <v>5.2661104937783101</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>5.2661104937783101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.74123864201828837</v>
       </c>
@@ -10601,8 +10710,11 @@
       <c r="C23">
         <v>-1.7106159363592646</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>-1.7106159363592646</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-0.8732299767434597</v>
       </c>
@@ -10612,8 +10724,11 @@
       <c r="C24">
         <v>2.7105987936029194</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>2.7105987936029194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.62222181027755141</v>
       </c>
@@ -10623,8 +10738,11 @@
       <c r="C25">
         <v>0.75413604083939045</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <v>0.75413604083939045</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-0.36937455274164677</v>
       </c>
@@ -10634,8 +10752,11 @@
       <c r="C26">
         <v>4.1874143905808552</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <v>4.1874143905808552</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-0.49581704987213016</v>
       </c>
@@ -10645,8 +10766,11 @@
       <c r="C27">
         <v>0.80486478245879445</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>0.80486478245879445</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-8.108448563143611E-2</v>
       </c>
@@ -10656,8 +10780,11 @@
       <c r="C28">
         <v>4.7972344695383082</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <v>4.7972344695383082</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-0.15617561992257833</v>
       </c>
@@ -10667,8 +10794,11 @@
       <c r="C29">
         <v>2.3326981384444707</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <v>2.3326981384444707</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-0.57730586780235171</v>
       </c>
@@ -10678,8 +10808,11 @@
       <c r="C30">
         <v>7.2983474444391527</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <v>7.2983474444391527</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0.26373649341985583</v>
       </c>
@@ -10689,8 +10822,11 @@
       <c r="C31">
         <v>3.6071446872258628</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <v>3.6071446872258628</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.90585017530247569</v>
       </c>
@@ -10700,8 +10836,11 @@
       <c r="C32">
         <v>3.4794922342984416</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <v>3.4794922342984416</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0.45024189213290811</v>
       </c>
@@ -10711,8 +10850,11 @@
       <c r="C33">
         <v>1.006034030706098</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <v>1.006034030706098</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-0.47372684022411704</v>
       </c>
@@ -10722,8 +10864,11 @@
       <c r="C34">
         <v>1.1782001064040803</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34">
+        <v>1.1782001064040803</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-0.69152020802721381</v>
       </c>
@@ -10733,8 +10878,11 @@
       <c r="C35">
         <v>2.0504877685972462</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35">
+        <v>2.0504877685972462</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0.86951710097491741</v>
       </c>
@@ -10744,8 +10892,11 @@
       <c r="C36">
         <v>8.9104237557629418E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36">
+        <v>8.9104237557629418E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-0.6761753698810935</v>
       </c>
@@ -10755,8 +10906,11 @@
       <c r="C37">
         <v>7.4463058894026064</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37">
+        <v>7.4463058894026064</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0.53931050049141049</v>
       </c>
@@ -10766,8 +10920,11 @@
       <c r="C38">
         <v>1.307264922986223</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38">
+        <v>1.307264922986223</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0.31303410418331623</v>
       </c>
@@ -10777,8 +10934,11 @@
       <c r="C39">
         <v>6.2342496314924833</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39">
+        <v>6.2342496314924833</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0.35185526311397552</v>
       </c>
@@ -10788,8 +10948,11 @@
       <c r="C40">
         <v>-4.0200048687260459</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40">
+        <v>-4.0200048687260459</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0.89112694095820189</v>
       </c>
@@ -10799,8 +10962,11 @@
       <c r="C41">
         <v>3.4169148835772045E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41">
+        <v>3.4169148835772045E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-0.27256935695186257</v>
       </c>
@@ -10810,8 +10976,11 @@
       <c r="C42">
         <v>-1.3548335789010286</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42">
+        <v>-1.3548335789010286</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0.33053294010460377</v>
       </c>
@@ -10821,8 +10990,11 @@
       <c r="C43">
         <v>-1.1596026423635903</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43">
+        <v>-1.1596026423635903</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-0.29519950738176703</v>
       </c>
@@ -10832,8 +11004,11 @@
       <c r="C44">
         <v>1.0305361356862546</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44">
+        <v>1.0305361356862546</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-0.1013447567820549</v>
       </c>
@@ -10843,8 +11018,11 @@
       <c r="C45">
         <v>-3.4377109086470448</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45">
+        <v>-3.4377109086470448</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0.14390164194628596</v>
       </c>
@@ -10854,8 +11032,11 @@
       <c r="C46">
         <v>2.4622699294033259</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46">
+        <v>2.4622699294033259</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>-0.47559220204129815</v>
       </c>
@@ -10865,8 +11046,11 @@
       <c r="C47">
         <v>-0.99732039943250061</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47">
+        <v>-0.99732039943250061</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0.61171672400087118</v>
       </c>
@@ -10876,8 +11060,11 @@
       <c r="C48">
         <v>1.1005746032064949</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48">
+        <v>1.1005746032064949</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0.27816094411537051</v>
       </c>
@@ -10887,8 +11074,11 @@
       <c r="C49">
         <v>6.5988649374727313</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49">
+        <v>6.5988649374727313</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>-0.90146514819934964</v>
       </c>
@@ -10898,8 +11088,11 @@
       <c r="C50">
         <v>-0.20768759448005492</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50">
+        <v>-0.20768759448005492</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-0.69292904064059258</v>
       </c>
@@ -10909,8 +11102,11 @@
       <c r="C51">
         <v>5.7701361645018228</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51">
+        <v>5.7701361645018228</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-0.32952900836244226</v>
       </c>
@@ -10920,8 +11116,11 @@
       <c r="C52">
         <v>5.5068435364648307</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52">
+        <v>5.5068435364648307</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0.33525006379932165</v>
       </c>
@@ -10931,8 +11130,11 @@
       <c r="C53">
         <v>4.55777452279745</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53">
+        <v>4.55777452279745</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>0.42683249805122614</v>
       </c>
@@ -10942,8 +11144,11 @@
       <c r="C54">
         <v>1.7655618709339955</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54">
+        <v>1.7655618709339955</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>9.628297109156847E-2</v>
       </c>
@@ -10953,8 +11158,11 @@
       <c r="C55">
         <v>2.8929635328363386</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55">
+        <v>2.8929635328363386</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-0.86457695998251438</v>
       </c>
@@ -10964,8 +11172,11 @@
       <c r="C56">
         <v>-1.3746628318613956</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D56">
+        <v>-1.3746628318613956</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0.58661293378099799</v>
       </c>
@@ -10975,8 +11186,11 @@
       <c r="C57">
         <v>2.3641003336061077</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D57">
+        <v>2.3641003336061077</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0.61329979356378317</v>
       </c>
@@ -10986,8 +11200,11 @@
       <c r="C58">
         <v>-0.2242246965670307</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D58">
+        <v>-0.2242246965670307</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>0.57989999745041132</v>
       </c>
@@ -10997,8 +11214,11 @@
       <c r="C59">
         <v>2.3702425359557728</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D59">
+        <v>2.3702425359557728</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-0.29786984389647841</v>
       </c>
@@ -11008,8 +11228,11 @@
       <c r="C60">
         <v>-1.7621347660757678</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D60">
+        <v>-1.7621347660757678</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-0.25192663352936506</v>
       </c>
@@ -11019,8 +11242,11 @@
       <c r="C61">
         <v>1.6284041941724754</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D61">
+        <v>1.6284041941724754</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>0.48018350452184677</v>
       </c>
@@ -11030,8 +11256,11 @@
       <c r="C62">
         <v>1.3172492959891171</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D62">
+        <v>1.3172492959891171</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-0.29192132456228137</v>
       </c>
@@ -11041,8 +11270,11 @@
       <c r="C63">
         <v>5.654164964431482</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D63">
+        <v>5.654164964431482</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-0.91082127671688795</v>
       </c>
@@ -11052,8 +11284,11 @@
       <c r="C64">
         <v>2.8889448734743386</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D64">
+        <v>2.8889448734743386</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>0.34804622549563646</v>
       </c>
@@ -11063,8 +11298,11 @@
       <c r="C65">
         <v>2.748629263631813</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D65">
+        <v>2.748629263631813</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-0.43176339287310839</v>
       </c>
@@ -11074,8 +11312,11 @@
       <c r="C66">
         <v>4.0799376584670313</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D66">
+        <v>4.0799376584670313</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>0.40278653148561716</v>
       </c>
@@ -11085,8 +11326,11 @@
       <c r="C67">
         <v>1.1364009938133222</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D67">
+        <v>1.1364009938133222</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-0.26215709280222654</v>
       </c>
@@ -11096,8 +11340,11 @@
       <c r="C68">
         <v>-2.6311626294112642</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D68">
+        <v>-2.6311626294112642</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-0.46861377684399486</v>
       </c>
@@ -11107,8 +11354,11 @@
       <c r="C69">
         <v>-0.5669105660389766</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D69">
+        <v>-0.5669105660389766</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>0.93003437900915742</v>
       </c>
@@ -11118,8 +11368,11 @@
       <c r="C70">
         <v>0.12861105403616291</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D70">
+        <v>0.12861105403616291</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>0.80312925251200795</v>
       </c>
@@ -11129,8 +11382,11 @@
       <c r="C71">
         <v>-0.65976582412958029</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D71">
+        <v>-0.65976582412958029</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-0.68696849793195724</v>
       </c>
@@ -11140,8 +11396,11 @@
       <c r="C72">
         <v>2.4321500942923606</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D72">
+        <v>2.4321500942923606</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>-0.6590762953273952</v>
       </c>
@@ -11151,8 +11410,11 @@
       <c r="C73">
         <v>6.3744434583225544</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D73">
+        <v>6.3744434583225544</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>0.3168933866545558</v>
       </c>
@@ -11162,8 +11424,11 @@
       <c r="C74">
         <v>2.8505365823561846</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D74">
+        <v>2.8505365823561846</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>0.60784284537658095</v>
       </c>
@@ -11173,8 +11438,11 @@
       <c r="C75">
         <v>1.5461745982230135</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D75">
+        <v>1.5461745982230135</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>-0.59493754617869854</v>
       </c>
@@ -11184,8 +11452,11 @@
       <c r="C76">
         <v>2.3491970193892695</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D76">
+        <v>2.3491970193892695</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>0.27055360563099384</v>
       </c>
@@ -11195,8 +11466,11 @@
       <c r="C77">
         <v>1.8487862557860726</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D77">
+        <v>1.8487862557860726</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>-0.10009184200316668</v>
       </c>
@@ -11206,8 +11480,11 @@
       <c r="C78">
         <v>1.1935708685451325</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D78">
+        <v>1.1935708685451325</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>0.79606163268908858</v>
       </c>
@@ -11217,8 +11494,11 @@
       <c r="C79">
         <v>2.4149826706961917</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D79">
+        <v>2.4149826706961917</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>-0.33815954113379121</v>
       </c>
@@ -11228,8 +11508,11 @@
       <c r="C80">
         <v>5.1969840339901987</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D80">
+        <v>5.1969840339901987</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>-0.25958700757473707</v>
       </c>
@@ -11239,8 +11522,11 @@
       <c r="C81">
         <v>-1.9021269811673447</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D81">
+        <v>-1.9021269811673447</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>0.6611259076744318</v>
       </c>
@@ -11250,8 +11536,11 @@
       <c r="C82">
         <v>3.5767110282390639</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D82">
+        <v>3.5767110282390639</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>-0.4177185851149261</v>
       </c>
@@ -11261,8 +11550,11 @@
       <c r="C83">
         <v>1.1545554672128397</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D83">
+        <v>1.1545554672128397</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>0.62532191211357713</v>
       </c>
@@ -11272,8 +11564,11 @@
       <c r="C84">
         <v>-1.9089264363352179</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D84">
+        <v>-1.9089264363352179</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>0.28010437684133649</v>
       </c>
@@ -11283,8 +11578,11 @@
       <c r="C85">
         <v>4.1383001919165139</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D85">
+        <v>4.1383001919165139</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>0.37171070743352175</v>
       </c>
@@ -11294,8 +11592,11 @@
       <c r="C86">
         <v>-0.73538181680084413</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D86">
+        <v>-0.73538181680084413</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>-2.3498728405684233E-2</v>
       </c>
@@ -11305,8 +11606,11 @@
       <c r="C87">
         <v>6.1520467110905814</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D87">
+        <v>6.1520467110905814</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>0.36598141398280859</v>
       </c>
@@ -11316,8 +11620,11 @@
       <c r="C88">
         <v>3.0652817896660673</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D88">
+        <v>3.0652817896660673</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>-0.73137106746435165</v>
       </c>
@@ -11327,8 +11634,11 @@
       <c r="C89">
         <v>-1.2541605097835546</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D89">
+        <v>-1.2541605097835546</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>6.6931700333952904E-2</v>
       </c>
@@ -11338,8 +11648,11 @@
       <c r="C90">
         <v>2.8154014222675272</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D90">
+        <v>2.8154014222675272</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>0.50061998516321182</v>
       </c>
@@ -11349,8 +11662,11 @@
       <c r="C91">
         <v>3.0275562573791142</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D91">
+        <v>3.0275562573791142</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>0.25722116138786077</v>
       </c>
@@ -11360,8 +11676,11 @@
       <c r="C92">
         <v>5.6486916454667258</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D92">
+        <v>5.6486916454667258</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>-0.32637759391218424</v>
       </c>
@@ -11371,8 +11690,11 @@
       <c r="C93">
         <v>3.829135001119909</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D93">
+        <v>3.829135001119909</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>-0.801655865740031</v>
       </c>
@@ -11382,8 +11704,11 @@
       <c r="C94">
         <v>7.784545404301034</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D94">
+        <v>7.784545404301034</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>0.79797026654705405</v>
       </c>
@@ -11393,8 +11718,11 @@
       <c r="C95">
         <v>-2.4411080132540901</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D95">
+        <v>-2.4411080132540901</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>6.05545649304986E-2</v>
       </c>
@@ -11404,8 +11732,11 @@
       <c r="C96">
         <v>5.7577909822258997</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D96">
+        <v>5.7577909822258997</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>-0.80952635360881686</v>
       </c>
@@ -11415,8 +11746,11 @@
       <c r="C97">
         <v>-1.4940430248515804</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D97">
+        <v>-1.4940430248515804</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>0.45351168466731906</v>
       </c>
@@ -11426,8 +11760,11 @@
       <c r="C98">
         <v>0.15100594179886162</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D98">
+        <v>0.15100594179886162</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>0.34591140458360314</v>
       </c>
@@ -11437,8 +11774,11 @@
       <c r="C99">
         <v>2.6161221467094253</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D99">
+        <v>2.6161221467094253</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>0.7174810110591352</v>
       </c>
@@ -11448,8 +11788,11 @@
       <c r="C100">
         <v>4.9221390967172383</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D100">
+        <v>4.9221390967172383</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>-0.94411851745098829</v>
       </c>
@@ -11457,6 +11800,9 @@
         <v>0.90323890173730392</v>
       </c>
       <c r="C101">
+        <v>4.0263725186965367</v>
+      </c>
+      <c r="D101">
         <v>4.0263725186965367</v>
       </c>
     </row>

--- a/lab2/ДЗ4.xlsx
+++ b/lab2/ДЗ4.xlsx
@@ -8,28 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Документы\GitHub\lab2\lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3317BE14-5F33-4C96-BEF3-39B349EDB164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172DEEF5-7866-43C6-986E-BC68E65FC5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Вариант 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Вариант 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Вариант 3" sheetId="3" r:id="rId3"/>
-    <sheet name="Вариант 4" sheetId="4" r:id="rId4"/>
-    <sheet name="Вариант 5" sheetId="5" r:id="rId5"/>
-    <sheet name="Вариант 6" sheetId="6" r:id="rId6"/>
-    <sheet name="Вариант 7" sheetId="7" r:id="rId7"/>
-    <sheet name="Вариант 8" sheetId="8" r:id="rId8"/>
-    <sheet name="Вариант 9" sheetId="9" r:id="rId9"/>
-    <sheet name="Вариант 10" sheetId="10" r:id="rId10"/>
+    <sheet name="Лист1" sheetId="11" r:id="rId2"/>
+    <sheet name="Вариант 2" sheetId="2" r:id="rId3"/>
+    <sheet name="Вариант 3" sheetId="3" r:id="rId4"/>
+    <sheet name="Вариант 4" sheetId="4" r:id="rId5"/>
+    <sheet name="Вариант 5" sheetId="5" r:id="rId6"/>
+    <sheet name="Вариант 6" sheetId="6" r:id="rId7"/>
+    <sheet name="Вариант 7" sheetId="7" r:id="rId8"/>
+    <sheet name="Вариант 8" sheetId="8" r:id="rId9"/>
+    <sheet name="Вариант 9" sheetId="9" r:id="rId10"/>
+    <sheet name="Вариант 10" sheetId="10" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="3">
   <si>
     <t>X</t>
   </si>
@@ -413,1123 +423,716 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:B88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.2010675985366106</v>
       </c>
       <c r="B2">
         <v>0.17872514550558477</v>
       </c>
-      <c r="C2">
-        <v>1.8310918809148982</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.23135439958423376</v>
       </c>
       <c r="B3">
         <v>0.75483310285806515</v>
       </c>
-      <c r="C3">
-        <v>-2.6269987996408721</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>7.1375269442796707E-2</v>
       </c>
       <c r="B4">
         <v>0.51495574013251166</v>
       </c>
-      <c r="C4">
-        <v>4.2304046738688372</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.3390725958161056</v>
       </c>
       <c r="B5">
         <v>0.54183437278053159</v>
       </c>
-      <c r="C5">
-        <v>1.066782941013757</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-0.47738726064562798</v>
       </c>
       <c r="B6">
         <v>0.72871702646285874</v>
       </c>
-      <c r="C6">
-        <v>0.43287870376676185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>9.73875867202878E-3</v>
       </c>
       <c r="B7">
         <v>0.67016163346551161</v>
       </c>
-      <c r="C7">
-        <v>-1.1635636434458561</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-0.21327780000865459</v>
       </c>
       <c r="B8">
         <v>0.6211359828403169</v>
       </c>
-      <c r="C8">
-        <v>-0.56938300998238045</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.39354863530024886</v>
       </c>
       <c r="B9">
         <v>0.66725186613288945</v>
       </c>
-      <c r="C9">
-        <v>7.1002919494284438</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-0.43338972143828869</v>
       </c>
       <c r="B10">
         <v>0.98264332297178825</v>
       </c>
-      <c r="C10">
-        <v>3.2797827515244053</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.92699490021914244</v>
       </c>
       <c r="B11">
         <v>0.72644477296746124</v>
       </c>
-      <c r="C11">
-        <v>3.1028778237201529</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.44358324073255062</v>
       </c>
       <c r="B12">
         <v>0.45517617287480494</v>
       </c>
-      <c r="C12">
-        <v>1.5064273030259421</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-2.6568260975182056E-2</v>
       </c>
       <c r="B13">
         <v>0.49035308576837811</v>
       </c>
-      <c r="C13">
-        <v>4.8677608592970403</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.51652928395196795</v>
       </c>
       <c r="B14">
         <v>0.44777232634037289</v>
       </c>
-      <c r="C14">
-        <v>8.7392233711144645</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.52675847196951509</v>
       </c>
       <c r="B15">
         <v>0.56561769793625682</v>
       </c>
-      <c r="C15">
-        <v>6.2917556366794161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.9335155226290226</v>
       </c>
       <c r="B16">
         <v>0.57502563137035223</v>
       </c>
-      <c r="C16">
-        <v>2.424949130006302</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-4.6884305775165558E-3</v>
       </c>
       <c r="B17">
         <v>0.68053177948101018</v>
       </c>
-      <c r="C17">
-        <v>0.88771051431395653</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-0.70669449027627707</v>
       </c>
       <c r="B18">
         <v>0.70192336474882988</v>
       </c>
-      <c r="C18">
-        <v>0.7283029470290161</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-0.15904274675995111</v>
       </c>
       <c r="B19">
         <v>0.68208664850365253</v>
       </c>
-      <c r="C19">
-        <v>0.59141411684614753</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-8.0294620245695114E-2</v>
       </c>
       <c r="B20">
         <v>0.79964861826524103</v>
       </c>
-      <c r="C20">
-        <v>1.8340839878336068</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.4499690355733037</v>
       </c>
       <c r="B21">
         <v>0.39383724488320115</v>
       </c>
-      <c r="C21">
-        <v>3.3510765763627108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-0.13071688171476126</v>
       </c>
       <c r="B22">
         <v>0.81907989613805388</v>
       </c>
-      <c r="C22">
-        <v>-0.17745770148050433</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-0.13668572995811701</v>
       </c>
       <c r="B23">
         <v>0.51940971682913872</v>
       </c>
-      <c r="C23">
-        <v>3.6236549709822832</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.29431003471836448</v>
       </c>
       <c r="B24">
         <v>0.69437688937287745</v>
       </c>
-      <c r="C24">
-        <v>0.56366095750393441</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.90488147456198931</v>
       </c>
       <c r="B25">
         <v>0.57467695851623524</v>
       </c>
-      <c r="C25">
-        <v>3.9677264723983718</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5.7924873661249876E-2</v>
       </c>
       <c r="B26">
         <v>0.65118880288212244</v>
       </c>
-      <c r="C26">
-        <v>1.1804755701555458</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.43523160833865404</v>
       </c>
       <c r="B27">
         <v>0.4952633872902234</v>
       </c>
-      <c r="C27">
-        <v>-0.97672326035259927</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-0.49092343542724848</v>
       </c>
       <c r="B28">
         <v>0.11844759971404351</v>
       </c>
-      <c r="C28">
-        <v>-2.9173839685832395</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0.84821080742403865</v>
       </c>
       <c r="B29">
         <v>0.87806060103231309</v>
       </c>
-      <c r="C29">
-        <v>-0.47481295092781561</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0.55495384335517883</v>
       </c>
       <c r="B30">
         <v>0.57164050679244804</v>
       </c>
-      <c r="C30">
-        <v>-0.12527680151999387</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0.62150189047679305</v>
       </c>
       <c r="B31">
         <v>0.89281946686152214</v>
       </c>
-      <c r="C31">
-        <v>6.4672012628429503</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.37478847894817591</v>
       </c>
       <c r="B32">
         <v>0.78063212784872038</v>
       </c>
-      <c r="C32">
-        <v>10.625527530777841</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-0.87289016600698233</v>
       </c>
       <c r="B33">
         <v>0.48907672473706809</v>
       </c>
-      <c r="C33">
-        <v>4.2049465423043673</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0.42230975860729814</v>
       </c>
       <c r="B34">
         <v>0.34047211946695261</v>
       </c>
-      <c r="C34">
-        <v>7.3290793444674014</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-0.65396047104150057</v>
       </c>
       <c r="B35">
         <v>0.41116187114475744</v>
       </c>
-      <c r="C35">
-        <v>-1.5781218264538346</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0.76975664496421814</v>
       </c>
       <c r="B36">
         <v>0.46444693159771866</v>
       </c>
-      <c r="C36">
-        <v>1.7856243297128052</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0.1977199986577034</v>
       </c>
       <c r="B37">
         <v>0.58343200535775275</v>
       </c>
-      <c r="C37">
-        <v>5.3433602359335559</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0.63818094925954938</v>
       </c>
       <c r="B38">
         <v>0.58328734630399004</v>
       </c>
-      <c r="C38">
-        <v>2.5808112110278021</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-0.76401986833661795</v>
       </c>
       <c r="B39">
         <v>0.99171133895398289</v>
       </c>
-      <c r="C39">
-        <v>-0.52003450687211306</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-0.12037713220342994</v>
       </c>
       <c r="B40">
         <v>0.6590187865048639</v>
       </c>
-      <c r="C40">
-        <v>-2.2573444304640091</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0.32050846377387643</v>
       </c>
       <c r="B41">
         <v>0.73012609123906214</v>
       </c>
-      <c r="C41">
-        <v>0.68503936766228057</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0.19054241897538304</v>
       </c>
       <c r="B42">
         <v>0.57708109294155707</v>
       </c>
-      <c r="C42">
-        <v>1.0940447659578996</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0.2856798991560936</v>
       </c>
       <c r="B43">
         <v>0.61924232276650304</v>
       </c>
-      <c r="C43">
-        <v>-0.44295866357647595</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-0.76402369001880288</v>
       </c>
       <c r="B44">
         <v>0.71523356887446687</v>
       </c>
-      <c r="C44">
-        <v>-0.35282634621240616</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>0.31588512007147074</v>
       </c>
       <c r="B45">
         <v>0.43428837707444501</v>
       </c>
-      <c r="C45">
-        <v>6.00738692020877</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0.18359604803845286</v>
       </c>
       <c r="B46">
         <v>0.44694631449550187</v>
       </c>
-      <c r="C46">
-        <v>3.1980232919261149</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>-0.7048473609611392</v>
       </c>
       <c r="B47">
         <v>0.92569389443034023</v>
       </c>
-      <c r="C47">
-        <v>-0.8832615827547472</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-0.56083495076745749</v>
       </c>
       <c r="B48">
         <v>0.40172503911663127</v>
       </c>
-      <c r="C48">
-        <v>3.7396343491419222</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>-0.99503191513940692</v>
       </c>
       <c r="B49">
         <v>0.45589147165466298</v>
       </c>
-      <c r="C49">
-        <v>4.4546644063718501</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0.58127150591462851</v>
       </c>
       <c r="B50">
         <v>0.47764496068221068</v>
       </c>
-      <c r="C50">
-        <v>3.8126510391176596</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>7.4637843295931816E-2</v>
       </c>
       <c r="B51">
         <v>0.89640915302974988</v>
       </c>
-      <c r="C51">
-        <v>9.5503641905407353</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-0.33827040391042829</v>
       </c>
       <c r="B52">
         <v>0.5398579184906146</v>
       </c>
-      <c r="C52">
-        <v>-0.62035768533098601</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0.43169908225536346</v>
       </c>
       <c r="B53">
         <v>0.4500480305147761</v>
       </c>
-      <c r="C53">
-        <v>4.1157036839557897</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-0.5653578476049006</v>
       </c>
       <c r="B54">
         <v>0.84170995803143456</v>
       </c>
-      <c r="C54">
-        <v>5.6660530948232495</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-0.53881968930363655</v>
       </c>
       <c r="B55">
         <v>0.18368211010228797</v>
       </c>
-      <c r="C55">
-        <v>1.8123857600629421</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-0.7724966979585588</v>
       </c>
       <c r="B56">
         <v>0.43423935840879546</v>
       </c>
-      <c r="C56">
-        <v>5.3381210980090454</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0.63429681584239006</v>
       </c>
       <c r="B57">
         <v>0.59023298680753022</v>
       </c>
-      <c r="C57">
-        <v>8.0328605779759599</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0.98327357228845358</v>
       </c>
       <c r="B58">
         <v>0.65559991826932673</v>
       </c>
-      <c r="C58">
-        <v>1.0725012607378603</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>0.56763219460844994</v>
       </c>
       <c r="B59">
         <v>0.80938093960530899</v>
       </c>
-      <c r="C59">
-        <v>0.75405890307751644</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-0.30725612957030535</v>
       </c>
       <c r="B60">
         <v>0.50492657384568751</v>
       </c>
-      <c r="C60">
-        <v>0.74832582772551182</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-7.9632940702140331E-2</v>
       </c>
       <c r="B61">
         <v>0.69659901707874006</v>
       </c>
-      <c r="C61">
-        <v>7.857826687452274E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>0.91470761736854911</v>
       </c>
       <c r="B62">
         <v>0.76253077941116154</v>
       </c>
-      <c r="C62">
-        <v>3.6123836452847726</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-0.40727846976369619</v>
       </c>
       <c r="B63">
         <v>0.82308076465995827</v>
       </c>
-      <c r="C63">
-        <v>3.6536782007785975</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>8.9888463262468576E-2</v>
       </c>
       <c r="B64">
         <v>0.86221653648815044</v>
       </c>
-      <c r="C64">
-        <v>0.77948085409610579</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>0.5055894972756505</v>
       </c>
       <c r="B65">
         <v>0.56460403702362105</v>
       </c>
-      <c r="C65">
-        <v>-2.021303908438286</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-0.16490439837798476</v>
       </c>
       <c r="B66">
         <v>0.35589399900308194</v>
       </c>
-      <c r="C66">
-        <v>7.6064301053833336</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-0.67842119000852108</v>
       </c>
       <c r="B67">
         <v>0.49211875909326952</v>
       </c>
-      <c r="C67">
-        <v>0.52510312040041396</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-0.12185006402432919</v>
       </c>
       <c r="B68">
         <v>0.68396722321411296</v>
       </c>
-      <c r="C68">
-        <v>-7.2612369088196793E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-0.14148544333875179</v>
       </c>
       <c r="B69">
         <v>0.74551134401149577</v>
       </c>
-      <c r="C69">
-        <v>1.6539009227648929</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>0.62157277623191476</v>
       </c>
       <c r="B70">
         <v>0.24881206998739308</v>
       </c>
-      <c r="C70">
-        <v>5.3928267658002547</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>0.35467028943821788</v>
       </c>
       <c r="B71">
         <v>0.89699528188081779</v>
       </c>
-      <c r="C71">
-        <v>3.578008080715656</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-0.64234098047018051</v>
       </c>
       <c r="B72">
         <v>0.13360888506395341</v>
       </c>
-      <c r="C72">
-        <v>-0.35955906252572811</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>0.14277811395004392</v>
       </c>
       <c r="B73">
         <v>0.71339977797820608</v>
       </c>
-      <c r="C73">
-        <v>3.4537737192587414</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>-0.68164190743118525</v>
       </c>
       <c r="B74">
         <v>0.69147098793897277</v>
       </c>
-      <c r="C74">
-        <v>6.1513758648181858</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>0.22331226291134953</v>
       </c>
       <c r="B75">
         <v>0.52784676030140509</v>
       </c>
-      <c r="C75">
-        <v>2.3814567551082577</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>0.96807686006650329</v>
       </c>
       <c r="B76">
         <v>0.83628237761876334</v>
       </c>
-      <c r="C76">
-        <v>3.7195676701998717</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>-0.43599451659247279</v>
       </c>
       <c r="B77">
         <v>9.216914351260054E-2</v>
       </c>
-      <c r="C77">
-        <v>-2.1408507708198545</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>0.57387520978227258</v>
       </c>
       <c r="B78">
         <v>0.63729595242605597</v>
       </c>
-      <c r="C78">
-        <v>1.2185839199218615</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>0.94270908460021019</v>
       </c>
       <c r="B79">
         <v>0.79754029310410179</v>
       </c>
-      <c r="C79">
-        <v>-0.49806247811866289</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>-0.99210325255990028</v>
       </c>
       <c r="B80">
         <v>0.45550343325544973</v>
       </c>
-      <c r="C80">
-        <v>-2.2787659366105641</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>0.85317451599985361</v>
       </c>
       <c r="B81">
         <v>0.30251210629407854</v>
       </c>
-      <c r="C81">
-        <v>3.7869595653712209</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>-0.7052529095672071</v>
       </c>
       <c r="B82">
         <v>0.20193682736282836</v>
       </c>
-      <c r="C82">
-        <v>-1.345962717440353</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>0.38789858715608716</v>
       </c>
       <c r="B83">
         <v>0.93206876587262466</v>
       </c>
-      <c r="C83">
-        <v>0.32553199437815339</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>-0.99291521357372403</v>
       </c>
       <c r="B84">
         <v>0.61886123167285756</v>
       </c>
-      <c r="C84">
-        <v>0.51315920187731612</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>-7.6939624268561602E-2</v>
       </c>
       <c r="B85">
         <v>0.85553178537399144</v>
       </c>
-      <c r="C85">
-        <v>-1.2749890052493633</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>0.60053574293851852</v>
       </c>
       <c r="B86">
         <v>0.75274480800326904</v>
       </c>
-      <c r="C86">
-        <v>2.7786054053724709</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>-3.8831955287605524E-2</v>
       </c>
       <c r="B87">
         <v>0.51966182314213538</v>
       </c>
-      <c r="C87">
-        <v>1.681062604634789</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>0.86713533662259579</v>
       </c>
       <c r="B88">
         <v>0.43511299348857679</v>
-      </c>
-      <c r="C88">
-        <v>-3.9137531981865763</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>-0.60107270814478397</v>
-      </c>
-      <c r="B89">
-        <v>0.16538861298933591</v>
-      </c>
-      <c r="C89">
-        <v>2.1686287793905805</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>-0.81047396920621395</v>
-      </c>
-      <c r="B90">
-        <v>0.72821439653913411</v>
-      </c>
-      <c r="C90">
-        <v>4.9159151811495061</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>0.97810417134314775</v>
-      </c>
-      <c r="B91">
-        <v>0.38822132127139392</v>
-      </c>
-      <c r="C91">
-        <v>7.1398630755790649</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>0.7791461693122983</v>
-      </c>
-      <c r="B92">
-        <v>0.39533227613030791</v>
-      </c>
-      <c r="C92">
-        <v>7.3035091686749238</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>0.58903424814343452</v>
-      </c>
-      <c r="B93">
-        <v>0.86732985350944836</v>
-      </c>
-      <c r="C93">
-        <v>-0.57946803390050494</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>0.4973145998083055</v>
-      </c>
-      <c r="B94">
-        <v>0.91512650939177698</v>
-      </c>
-      <c r="C94">
-        <v>9.0850171798761981E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>0.69323321944102645</v>
-      </c>
-      <c r="B95">
-        <v>0.26301919286720454</v>
-      </c>
-      <c r="C95">
-        <v>-0.35736035578147263</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>0.47046097414568067</v>
-      </c>
-      <c r="B96">
-        <v>0.74554613906155476</v>
-      </c>
-      <c r="C96">
-        <v>4.2237477984314786</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>-5.3820788860321045E-2</v>
-      </c>
-      <c r="B97">
-        <v>0.49732694157576252</v>
-      </c>
-      <c r="C97">
-        <v>-0.8665057894231234</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>-0.48259945353493094</v>
-      </c>
-      <c r="B98">
-        <v>0.5856828075665278</v>
-      </c>
-      <c r="C98">
-        <v>2.3385154557391985</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>-0.89401011355221272</v>
-      </c>
-      <c r="B99">
-        <v>0.70659107248754505</v>
-      </c>
-      <c r="C99">
-        <v>4.3012200343987557</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>0.79421565029770136</v>
-      </c>
-      <c r="B100">
-        <v>0.66595604961134813</v>
-      </c>
-      <c r="C100">
-        <v>3.3513261738873776</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>-0.18472275882959366</v>
-      </c>
-      <c r="B101">
-        <v>0.872801107461329</v>
-      </c>
-      <c r="C101">
-        <v>6.4278862835417607</v>
       </c>
     </row>
   </sheetData>
@@ -1538,6 +1141,1435 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:D101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.39140210440382361</v>
+      </c>
+      <c r="B2">
+        <v>0.1314685811268092</v>
+      </c>
+      <c r="C2">
+        <v>-2.8260091280246424</v>
+      </c>
+      <c r="D2">
+        <v>-2.8260091280246424</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-0.52229759097099304</v>
+      </c>
+      <c r="B3">
+        <v>0.42658953591609083</v>
+      </c>
+      <c r="C3">
+        <v>4.6350964440527456</v>
+      </c>
+      <c r="D3">
+        <v>4.6350964440527456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.87596849771216512</v>
+      </c>
+      <c r="B4">
+        <v>0.93081474579186152</v>
+      </c>
+      <c r="C4">
+        <v>5.1018912259927447</v>
+      </c>
+      <c r="D4">
+        <v>5.1018912259927447</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-0.39618555177003145</v>
+      </c>
+      <c r="B5">
+        <v>0.38757397586923104</v>
+      </c>
+      <c r="C5">
+        <v>3.3428177087788331</v>
+      </c>
+      <c r="D5">
+        <v>3.3428177087788331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.19210502086207271</v>
+      </c>
+      <c r="B6">
+        <v>0.66259287765014385</v>
+      </c>
+      <c r="C6">
+        <v>-0.76432712954066995</v>
+      </c>
+      <c r="D6">
+        <v>-0.76432712954066995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-0.95668709138408303</v>
+      </c>
+      <c r="B7">
+        <v>0.70931910727173131</v>
+      </c>
+      <c r="C7">
+        <v>1.4273319113501595</v>
+      </c>
+      <c r="D7">
+        <v>1.4273319113501595</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-0.10449800547212362</v>
+      </c>
+      <c r="B8">
+        <v>0.13138381303977559</v>
+      </c>
+      <c r="C8">
+        <v>3.6362081593478628</v>
+      </c>
+      <c r="D8">
+        <v>3.6362081593478628</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-0.11936450283974409</v>
+      </c>
+      <c r="B9">
+        <v>0.78454056434958064</v>
+      </c>
+      <c r="C9">
+        <v>3.4473538332223832</v>
+      </c>
+      <c r="D9">
+        <v>3.4473538332223832</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-0.99875800916925073</v>
+      </c>
+      <c r="B10">
+        <v>0.10603395472056616</v>
+      </c>
+      <c r="C10">
+        <v>2.1515889369843015</v>
+      </c>
+      <c r="D10">
+        <v>2.1515889369843015</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.63034723000600934</v>
+      </c>
+      <c r="B11">
+        <v>0.13990233927000076</v>
+      </c>
+      <c r="C11">
+        <v>3.7728574446203478</v>
+      </c>
+      <c r="D11">
+        <v>3.7728574446203478</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.47276790346950293</v>
+      </c>
+      <c r="B12">
+        <v>0.5631075285141145</v>
+      </c>
+      <c r="C12">
+        <v>-1.282294628285519</v>
+      </c>
+      <c r="D12">
+        <v>-1.282294628285519</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.11342388717457652</v>
+      </c>
+      <c r="B13">
+        <v>0.71676830766458133</v>
+      </c>
+      <c r="C13">
+        <v>-1.7345299047445857</v>
+      </c>
+      <c r="D13">
+        <v>-1.7345299047445857</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>-0.57745106145739555</v>
+      </c>
+      <c r="B14">
+        <v>0.55821835813563514</v>
+      </c>
+      <c r="C14">
+        <v>6.4794794073601638</v>
+      </c>
+      <c r="D14">
+        <v>6.4794794073601638</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.67914127837866545</v>
+      </c>
+      <c r="B15">
+        <v>0.30409618152724749</v>
+      </c>
+      <c r="C15">
+        <v>1.552634031417726</v>
+      </c>
+      <c r="D15">
+        <v>1.552634031417726</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5.958501435816288E-2</v>
+      </c>
+      <c r="B16">
+        <v>0.50869226234673648</v>
+      </c>
+      <c r="C16">
+        <v>2.2140103691205852</v>
+      </c>
+      <c r="D16">
+        <v>2.2140103691205852</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>-0.38707641931250691</v>
+      </c>
+      <c r="B17">
+        <v>0.43935577133584292</v>
+      </c>
+      <c r="C17">
+        <v>0.41751709831185657</v>
+      </c>
+      <c r="D17">
+        <v>0.41751709831185657</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>-0.83702964661642909</v>
+      </c>
+      <c r="B18">
+        <v>0.27056428752087058</v>
+      </c>
+      <c r="C18">
+        <v>-3.2379741543094109</v>
+      </c>
+      <c r="D18">
+        <v>-3.2379741543094109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.65515548037365079</v>
+      </c>
+      <c r="B19">
+        <v>0.47555308341966651</v>
+      </c>
+      <c r="C19">
+        <v>3.9855633943663351</v>
+      </c>
+      <c r="D19">
+        <v>3.9855633943663351</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3.3400805201381445E-2</v>
+      </c>
+      <c r="B20">
+        <v>0.67957372296055463</v>
+      </c>
+      <c r="C20">
+        <v>3.2276156201710213</v>
+      </c>
+      <c r="D20">
+        <v>3.2276156201710213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.3311811862513423</v>
+      </c>
+      <c r="B21">
+        <v>0.89216681764402572</v>
+      </c>
+      <c r="C21">
+        <v>-0.42746404903037449</v>
+      </c>
+      <c r="D21">
+        <v>-0.42746404903037449</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.71859577530995011</v>
+      </c>
+      <c r="B22">
+        <v>0.37805499074447341</v>
+      </c>
+      <c r="C22">
+        <v>5.2661104937783101</v>
+      </c>
+      <c r="D22">
+        <v>5.2661104937783101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.74123864201828837</v>
+      </c>
+      <c r="B23">
+        <v>0.78578494341245098</v>
+      </c>
+      <c r="C23">
+        <v>-1.7106159363592646</v>
+      </c>
+      <c r="D23">
+        <v>-1.7106159363592646</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>-0.8732299767434597</v>
+      </c>
+      <c r="B24">
+        <v>0.90177099125504279</v>
+      </c>
+      <c r="C24">
+        <v>2.7105987936029194</v>
+      </c>
+      <c r="D24">
+        <v>2.7105987936029194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.62222181027755141</v>
+      </c>
+      <c r="B25">
+        <v>0.57553287564148292</v>
+      </c>
+      <c r="C25">
+        <v>0.75413604083939045</v>
+      </c>
+      <c r="D25">
+        <v>0.75413604083939045</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>-0.36937455274164677</v>
+      </c>
+      <c r="B26">
+        <v>0.48660974640102622</v>
+      </c>
+      <c r="C26">
+        <v>4.1874143905808552</v>
+      </c>
+      <c r="D26">
+        <v>4.1874143905808552</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>-0.49581704987213016</v>
+      </c>
+      <c r="B27">
+        <v>0.90203356768097764</v>
+      </c>
+      <c r="C27">
+        <v>0.80486478245879445</v>
+      </c>
+      <c r="D27">
+        <v>0.80486478245879445</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>-8.108448563143611E-2</v>
+      </c>
+      <c r="B28">
+        <v>0.56727914111285427</v>
+      </c>
+      <c r="C28">
+        <v>4.7972344695383082</v>
+      </c>
+      <c r="D28">
+        <v>4.7972344695383082</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>-0.15617561992257833</v>
+      </c>
+      <c r="B29">
+        <v>0.73131823243966532</v>
+      </c>
+      <c r="C29">
+        <v>2.3326981384444707</v>
+      </c>
+      <c r="D29">
+        <v>2.3326981384444707</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>-0.57730586780235171</v>
+      </c>
+      <c r="B30">
+        <v>0.35489333172932497</v>
+      </c>
+      <c r="C30">
+        <v>7.2983474444391527</v>
+      </c>
+      <c r="D30">
+        <v>7.2983474444391527</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.26373649341985583</v>
+      </c>
+      <c r="B31">
+        <v>0.34223195075705798</v>
+      </c>
+      <c r="C31">
+        <v>3.6071446872258628</v>
+      </c>
+      <c r="D31">
+        <v>3.6071446872258628</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.90585017530247569</v>
+      </c>
+      <c r="B32">
+        <v>0.71561675846202499</v>
+      </c>
+      <c r="C32">
+        <v>3.4794922342984416</v>
+      </c>
+      <c r="D32">
+        <v>3.4794922342984416</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0.45024189213290811</v>
+      </c>
+      <c r="B33">
+        <v>0.19723940416049926</v>
+      </c>
+      <c r="C33">
+        <v>1.006034030706098</v>
+      </c>
+      <c r="D33">
+        <v>1.006034030706098</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>-0.47372684022411704</v>
+      </c>
+      <c r="B34">
+        <v>0.44639804593827037</v>
+      </c>
+      <c r="C34">
+        <v>1.1782001064040803</v>
+      </c>
+      <c r="D34">
+        <v>1.1782001064040803</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>-0.69152020802721381</v>
+      </c>
+      <c r="B35">
+        <v>0.61687639236993574</v>
+      </c>
+      <c r="C35">
+        <v>2.0504877685972462</v>
+      </c>
+      <c r="D35">
+        <v>2.0504877685972462</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0.86951710097491741</v>
+      </c>
+      <c r="B36">
+        <v>0.4643776941929938</v>
+      </c>
+      <c r="C36">
+        <v>8.9104237557629418E-2</v>
+      </c>
+      <c r="D36">
+        <v>8.9104237557629418E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>-0.6761753698810935</v>
+      </c>
+      <c r="B37">
+        <v>0.86884068055804742</v>
+      </c>
+      <c r="C37">
+        <v>7.4463058894026064</v>
+      </c>
+      <c r="D37">
+        <v>7.4463058894026064</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0.53931050049141049</v>
+      </c>
+      <c r="B38">
+        <v>0.45126250242136673</v>
+      </c>
+      <c r="C38">
+        <v>1.307264922986223</v>
+      </c>
+      <c r="D38">
+        <v>1.307264922986223</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0.31303410418331623</v>
+      </c>
+      <c r="B39">
+        <v>0.69712292681630206</v>
+      </c>
+      <c r="C39">
+        <v>6.2342496314924833</v>
+      </c>
+      <c r="D39">
+        <v>6.2342496314924833</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0.35185526311397552</v>
+      </c>
+      <c r="B40">
+        <v>0.40012311775245674</v>
+      </c>
+      <c r="C40">
+        <v>-4.0200048687260459</v>
+      </c>
+      <c r="D40">
+        <v>-4.0200048687260459</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0.89112694095820189</v>
+      </c>
+      <c r="B41">
+        <v>0.5976110446039441</v>
+      </c>
+      <c r="C41">
+        <v>3.4169148835772045E-2</v>
+      </c>
+      <c r="D41">
+        <v>3.4169148835772045E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>-0.27256935695186257</v>
+      </c>
+      <c r="B42">
+        <v>0.41851314442873155</v>
+      </c>
+      <c r="C42">
+        <v>-1.3548335789010286</v>
+      </c>
+      <c r="D42">
+        <v>-1.3548335789010286</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0.33053294010460377</v>
+      </c>
+      <c r="B43">
+        <v>0.4062008328090409</v>
+      </c>
+      <c r="C43">
+        <v>-1.1596026423635903</v>
+      </c>
+      <c r="D43">
+        <v>-1.1596026423635903</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>-0.29519950738176703</v>
+      </c>
+      <c r="B44">
+        <v>0.15969717775198106</v>
+      </c>
+      <c r="C44">
+        <v>1.0305361356862546</v>
+      </c>
+      <c r="D44">
+        <v>1.0305361356862546</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>-0.1013447567820549</v>
+      </c>
+      <c r="B45">
+        <v>0.82141603718974421</v>
+      </c>
+      <c r="C45">
+        <v>-3.4377109086470448</v>
+      </c>
+      <c r="D45">
+        <v>-3.4377109086470448</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0.14390164194628596</v>
+      </c>
+      <c r="B46">
+        <v>0.68631523009428574</v>
+      </c>
+      <c r="C46">
+        <v>2.4622699294033259</v>
+      </c>
+      <c r="D46">
+        <v>2.4622699294033259</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>-0.47559220204129815</v>
+      </c>
+      <c r="B47">
+        <v>0.74566376220042918</v>
+      </c>
+      <c r="C47">
+        <v>-0.99732039943250061</v>
+      </c>
+      <c r="D47">
+        <v>-0.99732039943250061</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>0.61171672400087118</v>
+      </c>
+      <c r="B48">
+        <v>6.7854623536600725E-2</v>
+      </c>
+      <c r="C48">
+        <v>1.1005746032064949</v>
+      </c>
+      <c r="D48">
+        <v>1.1005746032064949</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>0.27816094411537051</v>
+      </c>
+      <c r="B49">
+        <v>0.82585167005802462</v>
+      </c>
+      <c r="C49">
+        <v>6.5988649374727313</v>
+      </c>
+      <c r="D49">
+        <v>6.5988649374727313</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>-0.90146514819934964</v>
+      </c>
+      <c r="B50">
+        <v>0.10993521648427924</v>
+      </c>
+      <c r="C50">
+        <v>-0.20768759448005492</v>
+      </c>
+      <c r="D50">
+        <v>-0.20768759448005492</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>-0.69292904064059258</v>
+      </c>
+      <c r="B51">
+        <v>0.35936908160203057</v>
+      </c>
+      <c r="C51">
+        <v>5.7701361645018228</v>
+      </c>
+      <c r="D51">
+        <v>5.7701361645018228</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>-0.32952900836244226</v>
+      </c>
+      <c r="B52">
+        <v>0.4644778809840136</v>
+      </c>
+      <c r="C52">
+        <v>5.5068435364648307</v>
+      </c>
+      <c r="D52">
+        <v>5.5068435364648307</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>0.33525006379932165</v>
+      </c>
+      <c r="B53">
+        <v>0.71609005148339189</v>
+      </c>
+      <c r="C53">
+        <v>4.55777452279745</v>
+      </c>
+      <c r="D53">
+        <v>4.55777452279745</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>0.42683249805122614</v>
+      </c>
+      <c r="B54">
+        <v>0.87204465417089594</v>
+      </c>
+      <c r="C54">
+        <v>1.7655618709339955</v>
+      </c>
+      <c r="D54">
+        <v>1.7655618709339955</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>9.628297109156847E-2</v>
+      </c>
+      <c r="B55">
+        <v>0.74054380062048408</v>
+      </c>
+      <c r="C55">
+        <v>2.8929635328363386</v>
+      </c>
+      <c r="D55">
+        <v>2.8929635328363386</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>-0.86457695998251438</v>
+      </c>
+      <c r="B56">
+        <v>0.35552563999353248</v>
+      </c>
+      <c r="C56">
+        <v>-1.3746628318613956</v>
+      </c>
+      <c r="D56">
+        <v>-1.3746628318613956</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0.58661293378099799</v>
+      </c>
+      <c r="B57">
+        <v>0.38615562622748251</v>
+      </c>
+      <c r="C57">
+        <v>2.3641003336061077</v>
+      </c>
+      <c r="D57">
+        <v>2.3641003336061077</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>0.61329979356378317</v>
+      </c>
+      <c r="B58">
+        <v>0.63748594686477589</v>
+      </c>
+      <c r="C58">
+        <v>-0.2242246965670307</v>
+      </c>
+      <c r="D58">
+        <v>-0.2242246965670307</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>0.57989999745041132</v>
+      </c>
+      <c r="B59">
+        <v>0.24676979074511346</v>
+      </c>
+      <c r="C59">
+        <v>2.3702425359557728</v>
+      </c>
+      <c r="D59">
+        <v>2.3702425359557728</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>-0.29786984389647841</v>
+      </c>
+      <c r="B60">
+        <v>0.7138753976497223</v>
+      </c>
+      <c r="C60">
+        <v>-1.7621347660757678</v>
+      </c>
+      <c r="D60">
+        <v>-1.7621347660757678</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>-0.25192663352936506</v>
+      </c>
+      <c r="B61">
+        <v>0.50399007519296113</v>
+      </c>
+      <c r="C61">
+        <v>1.6284041941724754</v>
+      </c>
+      <c r="D61">
+        <v>1.6284041941724754</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>0.48018350452184677</v>
+      </c>
+      <c r="B62">
+        <v>0.28839783695296578</v>
+      </c>
+      <c r="C62">
+        <v>1.3172492959891171</v>
+      </c>
+      <c r="D62">
+        <v>1.3172492959891171</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>-0.29192132456228137</v>
+      </c>
+      <c r="B63">
+        <v>0.78861790975567847</v>
+      </c>
+      <c r="C63">
+        <v>5.654164964431482</v>
+      </c>
+      <c r="D63">
+        <v>5.654164964431482</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>-0.91082127671688795</v>
+      </c>
+      <c r="B64">
+        <v>0.61678229362504644</v>
+      </c>
+      <c r="C64">
+        <v>2.8889448734743386</v>
+      </c>
+      <c r="D64">
+        <v>2.8889448734743386</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>0.34804622549563646</v>
+      </c>
+      <c r="B65">
+        <v>0.50807573787328897</v>
+      </c>
+      <c r="C65">
+        <v>2.748629263631813</v>
+      </c>
+      <c r="D65">
+        <v>2.748629263631813</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>-0.43176339287310839</v>
+      </c>
+      <c r="B66">
+        <v>0.51533682376554879</v>
+      </c>
+      <c r="C66">
+        <v>4.0799376584670313</v>
+      </c>
+      <c r="D66">
+        <v>4.0799376584670313</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>0.40278653148561716</v>
+      </c>
+      <c r="B67">
+        <v>0.55979050475122705</v>
+      </c>
+      <c r="C67">
+        <v>1.1364009938133222</v>
+      </c>
+      <c r="D67">
+        <v>1.1364009938133222</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>-0.26215709280222654</v>
+      </c>
+      <c r="B68">
+        <v>0.32770115272872663</v>
+      </c>
+      <c r="C68">
+        <v>-2.6311626294112642</v>
+      </c>
+      <c r="D68">
+        <v>-2.6311626294112642</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>-0.46861377684399486</v>
+      </c>
+      <c r="B69">
+        <v>0.62609376310019749</v>
+      </c>
+      <c r="C69">
+        <v>-0.5669105660389766</v>
+      </c>
+      <c r="D69">
+        <v>-0.5669105660389766</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>0.93003437900915742</v>
+      </c>
+      <c r="B70">
+        <v>0.73212371148153066</v>
+      </c>
+      <c r="C70">
+        <v>0.12861105403616291</v>
+      </c>
+      <c r="D70">
+        <v>0.12861105403616291</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>0.80312925251200795</v>
+      </c>
+      <c r="B71">
+        <v>0.27723276185663853</v>
+      </c>
+      <c r="C71">
+        <v>-0.65976582412958029</v>
+      </c>
+      <c r="D71">
+        <v>-0.65976582412958029</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>-0.68696849793195724</v>
+      </c>
+      <c r="B72">
+        <v>0.85646519989367853</v>
+      </c>
+      <c r="C72">
+        <v>2.4321500942923606</v>
+      </c>
+      <c r="D72">
+        <v>2.4321500942923606</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>-0.6590762953273952</v>
+      </c>
+      <c r="B73">
+        <v>0.87030137716759659</v>
+      </c>
+      <c r="C73">
+        <v>6.3744434583225544</v>
+      </c>
+      <c r="D73">
+        <v>6.3744434583225544</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>0.3168933866545558</v>
+      </c>
+      <c r="B74">
+        <v>0.88745993806447188</v>
+      </c>
+      <c r="C74">
+        <v>2.8505365823561846</v>
+      </c>
+      <c r="D74">
+        <v>2.8505365823561846</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>0.60784284537658095</v>
+      </c>
+      <c r="B75">
+        <v>0.71701165218701191</v>
+      </c>
+      <c r="C75">
+        <v>1.5461745982230135</v>
+      </c>
+      <c r="D75">
+        <v>1.5461745982230135</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>-0.59493754617869854</v>
+      </c>
+      <c r="B76">
+        <v>0.50830310050459138</v>
+      </c>
+      <c r="C76">
+        <v>2.3491970193892695</v>
+      </c>
+      <c r="D76">
+        <v>2.3491970193892695</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>0.27055360563099384</v>
+      </c>
+      <c r="B77">
+        <v>0.61967795842667939</v>
+      </c>
+      <c r="C77">
+        <v>1.8487862557860726</v>
+      </c>
+      <c r="D77">
+        <v>1.8487862557860726</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>-0.10009184200316668</v>
+      </c>
+      <c r="B78">
+        <v>0.24006192989349837</v>
+      </c>
+      <c r="C78">
+        <v>1.1935708685451325</v>
+      </c>
+      <c r="D78">
+        <v>1.1935708685451325</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>0.79606163268908858</v>
+      </c>
+      <c r="B79">
+        <v>0.45599108148897033</v>
+      </c>
+      <c r="C79">
+        <v>2.4149826706961917</v>
+      </c>
+      <c r="D79">
+        <v>2.4149826706961917</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>-0.33815954113379121</v>
+      </c>
+      <c r="B80">
+        <v>0.85066148317167645</v>
+      </c>
+      <c r="C80">
+        <v>5.1969840339901987</v>
+      </c>
+      <c r="D80">
+        <v>5.1969840339901987</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>-0.25958700757473707</v>
+      </c>
+      <c r="B81">
+        <v>0.60215006583329755</v>
+      </c>
+      <c r="C81">
+        <v>-1.9021269811673447</v>
+      </c>
+      <c r="D81">
+        <v>-1.9021269811673447</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>0.6611259076744318</v>
+      </c>
+      <c r="B82">
+        <v>0.74189061213826046</v>
+      </c>
+      <c r="C82">
+        <v>3.5767110282390639</v>
+      </c>
+      <c r="D82">
+        <v>3.5767110282390639</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>-0.4177185851149261</v>
+      </c>
+      <c r="B83">
+        <v>0.37432048000845114</v>
+      </c>
+      <c r="C83">
+        <v>1.1545554672128397</v>
+      </c>
+      <c r="D83">
+        <v>1.1545554672128397</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>0.62532191211357713</v>
+      </c>
+      <c r="B84">
+        <v>0.61941352062909771</v>
+      </c>
+      <c r="C84">
+        <v>-1.9089264363352179</v>
+      </c>
+      <c r="D84">
+        <v>-1.9089264363352179</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>0.28010437684133649</v>
+      </c>
+      <c r="B85">
+        <v>0.11187126962852734</v>
+      </c>
+      <c r="C85">
+        <v>4.1383001919165139</v>
+      </c>
+      <c r="D85">
+        <v>4.1383001919165139</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>0.37171070743352175</v>
+      </c>
+      <c r="B86">
+        <v>0.22914502905569734</v>
+      </c>
+      <c r="C86">
+        <v>-0.73538181680084413</v>
+      </c>
+      <c r="D86">
+        <v>-0.73538181680084413</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>-2.3498728405684233E-2</v>
+      </c>
+      <c r="B87">
+        <v>0.83423183832299708</v>
+      </c>
+      <c r="C87">
+        <v>6.1520467110905814</v>
+      </c>
+      <c r="D87">
+        <v>6.1520467110905814</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>0.36598141398280859</v>
+      </c>
+      <c r="B88">
+        <v>0.36052129017813928</v>
+      </c>
+      <c r="C88">
+        <v>3.0652817896660673</v>
+      </c>
+      <c r="D88">
+        <v>3.0652817896660673</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>-0.73137106746435165</v>
+      </c>
+      <c r="B89">
+        <v>0.9523209941081725</v>
+      </c>
+      <c r="C89">
+        <v>-1.2541605097835546</v>
+      </c>
+      <c r="D89">
+        <v>-1.2541605097835546</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>6.6931700333952904E-2</v>
+      </c>
+      <c r="B90">
+        <v>0.33932080191803249</v>
+      </c>
+      <c r="C90">
+        <v>2.8154014222675272</v>
+      </c>
+      <c r="D90">
+        <v>2.8154014222675272</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>0.50061998516321182</v>
+      </c>
+      <c r="B91">
+        <v>0.58717582933158641</v>
+      </c>
+      <c r="C91">
+        <v>3.0275562573791142</v>
+      </c>
+      <c r="D91">
+        <v>3.0275562573791142</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>0.25722116138786077</v>
+      </c>
+      <c r="B92">
+        <v>0.67185143525285274</v>
+      </c>
+      <c r="C92">
+        <v>5.6486916454667258</v>
+      </c>
+      <c r="D92">
+        <v>5.6486916454667258</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>-0.32637759391218424</v>
+      </c>
+      <c r="B93">
+        <v>0.65143113937539654</v>
+      </c>
+      <c r="C93">
+        <v>3.829135001119909</v>
+      </c>
+      <c r="D93">
+        <v>3.829135001119909</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>-0.801655865740031</v>
+      </c>
+      <c r="B94">
+        <v>0.37540367192598789</v>
+      </c>
+      <c r="C94">
+        <v>7.784545404301034</v>
+      </c>
+      <c r="D94">
+        <v>7.784545404301034</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>0.79797026654705405</v>
+      </c>
+      <c r="B95">
+        <v>0.87009751405998814</v>
+      </c>
+      <c r="C95">
+        <v>-2.4411080132540901</v>
+      </c>
+      <c r="D95">
+        <v>-2.4411080132540901</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>6.05545649304986E-2</v>
+      </c>
+      <c r="B96">
+        <v>0.83226891657592039</v>
+      </c>
+      <c r="C96">
+        <v>5.7577909822258997</v>
+      </c>
+      <c r="D96">
+        <v>5.7577909822258997</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>-0.80952635360881686</v>
+      </c>
+      <c r="B97">
+        <v>0.3199582956942279</v>
+      </c>
+      <c r="C97">
+        <v>-1.4940430248515804</v>
+      </c>
+      <c r="D97">
+        <v>-1.4940430248515804</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>0.45351168466731906</v>
+      </c>
+      <c r="B98">
+        <v>0.49291685043121797</v>
+      </c>
+      <c r="C98">
+        <v>0.15100594179886162</v>
+      </c>
+      <c r="D98">
+        <v>0.15100594179886162</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>0.34591140458360314</v>
+      </c>
+      <c r="B99">
+        <v>0.38765161365002254</v>
+      </c>
+      <c r="C99">
+        <v>2.6161221467094253</v>
+      </c>
+      <c r="D99">
+        <v>2.6161221467094253</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>0.7174810110591352</v>
+      </c>
+      <c r="B100">
+        <v>0.82573982937149881</v>
+      </c>
+      <c r="C100">
+        <v>4.9221390967172383</v>
+      </c>
+      <c r="D100">
+        <v>4.9221390967172383</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>-0.94411851745098829</v>
+      </c>
+      <c r="B101">
+        <v>0.90323890173730392</v>
+      </c>
+      <c r="C101">
+        <v>4.0263725186965367</v>
+      </c>
+      <c r="D101">
+        <v>4.0263725186965367</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C101"/>
   <sheetViews>
@@ -2664,6 +3696,186 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27449FB9-E432-4F30-A2D1-F3FD49C6DF01}">
+  <dimension ref="F8:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="8" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>0.82077505579218268</v>
+      </c>
+      <c r="G8">
+        <v>0.47307466873793208</v>
+      </c>
+      <c r="H8">
+        <v>5.3195654402713082</v>
+      </c>
+    </row>
+    <row r="9" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>-0.67566110752522945</v>
+      </c>
+      <c r="G9">
+        <v>0.88200832058207501</v>
+      </c>
+      <c r="H9">
+        <v>-1.8842597370971772</v>
+      </c>
+    </row>
+    <row r="10" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>-0.2752647721208632</v>
+      </c>
+      <c r="G10">
+        <v>0.96629619623149388</v>
+      </c>
+      <c r="H10">
+        <v>6.4632952996068713</v>
+      </c>
+    </row>
+    <row r="11" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>-6.517201941460371E-2</v>
+      </c>
+      <c r="G11">
+        <v>0.29632666004063674</v>
+      </c>
+      <c r="H11">
+        <v>-2.5312365152762117</v>
+      </c>
+    </row>
+    <row r="12" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>0.43522558826953173</v>
+      </c>
+      <c r="G12">
+        <v>0.87768413122121369</v>
+      </c>
+      <c r="H12">
+        <v>0.5207361322444064</v>
+      </c>
+    </row>
+    <row r="13" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>0.59561238018795848</v>
+      </c>
+      <c r="G13">
+        <v>0.32942961451828712</v>
+      </c>
+      <c r="H13">
+        <v>-0.72647418813066045</v>
+      </c>
+    </row>
+    <row r="14" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>0.63590054353699088</v>
+      </c>
+      <c r="G14">
+        <v>0.62885608903734502</v>
+      </c>
+      <c r="H14">
+        <v>-2.1116380369472925</v>
+      </c>
+    </row>
+    <row r="15" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>-0.33295812923461199</v>
+      </c>
+      <c r="G15">
+        <v>0.74152770672188828</v>
+      </c>
+      <c r="H15">
+        <v>2.7378349566373705</v>
+      </c>
+    </row>
+    <row r="16" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>-0.87104257475584745</v>
+      </c>
+      <c r="G16">
+        <v>0.56882663692087165</v>
+      </c>
+      <c r="H16">
+        <v>-1.5192957348173657</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>0.40537410415709019</v>
+      </c>
+      <c r="G17">
+        <v>0.76623609241163726</v>
+      </c>
+      <c r="H17">
+        <v>3.9064496887590408</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>0.12020929483696818</v>
+      </c>
+      <c r="G18">
+        <v>0.76580999517666271</v>
+      </c>
+      <c r="H18">
+        <v>0.84186366533512325</v>
+      </c>
+    </row>
+    <row r="19" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>0.53950026864185929</v>
+      </c>
+      <c r="G19">
+        <v>0.65248224479566108</v>
+      </c>
+      <c r="H19">
+        <v>-3.6983436287355058</v>
+      </c>
+    </row>
+    <row r="20" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>0.288978043012321</v>
+      </c>
+      <c r="G20">
+        <v>0.438334070848033</v>
+      </c>
+      <c r="H20">
+        <v>7.4395127835859434</v>
+      </c>
+    </row>
+    <row r="21" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>-0.72393237659707665</v>
+      </c>
+      <c r="G21">
+        <v>0.69940145972044321</v>
+      </c>
+      <c r="H21">
+        <v>2.9476620835004086</v>
+      </c>
+    </row>
+    <row r="22" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>-0.86888727964833379</v>
+      </c>
+      <c r="G22">
+        <v>0.14167736778660175</v>
+      </c>
+      <c r="H22">
+        <v>2.8536742026946977</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C101"/>
   <sheetViews>
@@ -3789,12 +5001,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4915,7 +6127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C101"/>
   <sheetViews>
@@ -6041,7 +7253,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C101"/>
   <sheetViews>
@@ -7167,7 +8379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C96"/>
   <sheetViews>
@@ -8130,7 +9342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C101"/>
   <sheetViews>
@@ -9256,7 +10468,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C101"/>
   <sheetViews>
@@ -10380,1433 +11592,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:D101"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.39140210440382361</v>
-      </c>
-      <c r="B2">
-        <v>0.1314685811268092</v>
-      </c>
-      <c r="C2">
-        <v>-2.8260091280246424</v>
-      </c>
-      <c r="D2">
-        <v>-2.8260091280246424</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>-0.52229759097099304</v>
-      </c>
-      <c r="B3">
-        <v>0.42658953591609083</v>
-      </c>
-      <c r="C3">
-        <v>4.6350964440527456</v>
-      </c>
-      <c r="D3">
-        <v>4.6350964440527456</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.87596849771216512</v>
-      </c>
-      <c r="B4">
-        <v>0.93081474579186152</v>
-      </c>
-      <c r="C4">
-        <v>5.1018912259927447</v>
-      </c>
-      <c r="D4">
-        <v>5.1018912259927447</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>-0.39618555177003145</v>
-      </c>
-      <c r="B5">
-        <v>0.38757397586923104</v>
-      </c>
-      <c r="C5">
-        <v>3.3428177087788331</v>
-      </c>
-      <c r="D5">
-        <v>3.3428177087788331</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.19210502086207271</v>
-      </c>
-      <c r="B6">
-        <v>0.66259287765014385</v>
-      </c>
-      <c r="C6">
-        <v>-0.76432712954066995</v>
-      </c>
-      <c r="D6">
-        <v>-0.76432712954066995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>-0.95668709138408303</v>
-      </c>
-      <c r="B7">
-        <v>0.70931910727173131</v>
-      </c>
-      <c r="C7">
-        <v>1.4273319113501595</v>
-      </c>
-      <c r="D7">
-        <v>1.4273319113501595</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>-0.10449800547212362</v>
-      </c>
-      <c r="B8">
-        <v>0.13138381303977559</v>
-      </c>
-      <c r="C8">
-        <v>3.6362081593478628</v>
-      </c>
-      <c r="D8">
-        <v>3.6362081593478628</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>-0.11936450283974409</v>
-      </c>
-      <c r="B9">
-        <v>0.78454056434958064</v>
-      </c>
-      <c r="C9">
-        <v>3.4473538332223832</v>
-      </c>
-      <c r="D9">
-        <v>3.4473538332223832</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>-0.99875800916925073</v>
-      </c>
-      <c r="B10">
-        <v>0.10603395472056616</v>
-      </c>
-      <c r="C10">
-        <v>2.1515889369843015</v>
-      </c>
-      <c r="D10">
-        <v>2.1515889369843015</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0.63034723000600934</v>
-      </c>
-      <c r="B11">
-        <v>0.13990233927000076</v>
-      </c>
-      <c r="C11">
-        <v>3.7728574446203478</v>
-      </c>
-      <c r="D11">
-        <v>3.7728574446203478</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>0.47276790346950293</v>
-      </c>
-      <c r="B12">
-        <v>0.5631075285141145</v>
-      </c>
-      <c r="C12">
-        <v>-1.282294628285519</v>
-      </c>
-      <c r="D12">
-        <v>-1.282294628285519</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>0.11342388717457652</v>
-      </c>
-      <c r="B13">
-        <v>0.71676830766458133</v>
-      </c>
-      <c r="C13">
-        <v>-1.7345299047445857</v>
-      </c>
-      <c r="D13">
-        <v>-1.7345299047445857</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>-0.57745106145739555</v>
-      </c>
-      <c r="B14">
-        <v>0.55821835813563514</v>
-      </c>
-      <c r="C14">
-        <v>6.4794794073601638</v>
-      </c>
-      <c r="D14">
-        <v>6.4794794073601638</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>0.67914127837866545</v>
-      </c>
-      <c r="B15">
-        <v>0.30409618152724749</v>
-      </c>
-      <c r="C15">
-        <v>1.552634031417726</v>
-      </c>
-      <c r="D15">
-        <v>1.552634031417726</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>5.958501435816288E-2</v>
-      </c>
-      <c r="B16">
-        <v>0.50869226234673648</v>
-      </c>
-      <c r="C16">
-        <v>2.2140103691205852</v>
-      </c>
-      <c r="D16">
-        <v>2.2140103691205852</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>-0.38707641931250691</v>
-      </c>
-      <c r="B17">
-        <v>0.43935577133584292</v>
-      </c>
-      <c r="C17">
-        <v>0.41751709831185657</v>
-      </c>
-      <c r="D17">
-        <v>0.41751709831185657</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>-0.83702964661642909</v>
-      </c>
-      <c r="B18">
-        <v>0.27056428752087058</v>
-      </c>
-      <c r="C18">
-        <v>-3.2379741543094109</v>
-      </c>
-      <c r="D18">
-        <v>-3.2379741543094109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>0.65515548037365079</v>
-      </c>
-      <c r="B19">
-        <v>0.47555308341966651</v>
-      </c>
-      <c r="C19">
-        <v>3.9855633943663351</v>
-      </c>
-      <c r="D19">
-        <v>3.9855633943663351</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>3.3400805201381445E-2</v>
-      </c>
-      <c r="B20">
-        <v>0.67957372296055463</v>
-      </c>
-      <c r="C20">
-        <v>3.2276156201710213</v>
-      </c>
-      <c r="D20">
-        <v>3.2276156201710213</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>0.3311811862513423</v>
-      </c>
-      <c r="B21">
-        <v>0.89216681764402572</v>
-      </c>
-      <c r="C21">
-        <v>-0.42746404903037449</v>
-      </c>
-      <c r="D21">
-        <v>-0.42746404903037449</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>0.71859577530995011</v>
-      </c>
-      <c r="B22">
-        <v>0.37805499074447341</v>
-      </c>
-      <c r="C22">
-        <v>5.2661104937783101</v>
-      </c>
-      <c r="D22">
-        <v>5.2661104937783101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>0.74123864201828837</v>
-      </c>
-      <c r="B23">
-        <v>0.78578494341245098</v>
-      </c>
-      <c r="C23">
-        <v>-1.7106159363592646</v>
-      </c>
-      <c r="D23">
-        <v>-1.7106159363592646</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>-0.8732299767434597</v>
-      </c>
-      <c r="B24">
-        <v>0.90177099125504279</v>
-      </c>
-      <c r="C24">
-        <v>2.7105987936029194</v>
-      </c>
-      <c r="D24">
-        <v>2.7105987936029194</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>0.62222181027755141</v>
-      </c>
-      <c r="B25">
-        <v>0.57553287564148292</v>
-      </c>
-      <c r="C25">
-        <v>0.75413604083939045</v>
-      </c>
-      <c r="D25">
-        <v>0.75413604083939045</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>-0.36937455274164677</v>
-      </c>
-      <c r="B26">
-        <v>0.48660974640102622</v>
-      </c>
-      <c r="C26">
-        <v>4.1874143905808552</v>
-      </c>
-      <c r="D26">
-        <v>4.1874143905808552</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>-0.49581704987213016</v>
-      </c>
-      <c r="B27">
-        <v>0.90203356768097764</v>
-      </c>
-      <c r="C27">
-        <v>0.80486478245879445</v>
-      </c>
-      <c r="D27">
-        <v>0.80486478245879445</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>-8.108448563143611E-2</v>
-      </c>
-      <c r="B28">
-        <v>0.56727914111285427</v>
-      </c>
-      <c r="C28">
-        <v>4.7972344695383082</v>
-      </c>
-      <c r="D28">
-        <v>4.7972344695383082</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>-0.15617561992257833</v>
-      </c>
-      <c r="B29">
-        <v>0.73131823243966532</v>
-      </c>
-      <c r="C29">
-        <v>2.3326981384444707</v>
-      </c>
-      <c r="D29">
-        <v>2.3326981384444707</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>-0.57730586780235171</v>
-      </c>
-      <c r="B30">
-        <v>0.35489333172932497</v>
-      </c>
-      <c r="C30">
-        <v>7.2983474444391527</v>
-      </c>
-      <c r="D30">
-        <v>7.2983474444391527</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>0.26373649341985583</v>
-      </c>
-      <c r="B31">
-        <v>0.34223195075705798</v>
-      </c>
-      <c r="C31">
-        <v>3.6071446872258628</v>
-      </c>
-      <c r="D31">
-        <v>3.6071446872258628</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>0.90585017530247569</v>
-      </c>
-      <c r="B32">
-        <v>0.71561675846202499</v>
-      </c>
-      <c r="C32">
-        <v>3.4794922342984416</v>
-      </c>
-      <c r="D32">
-        <v>3.4794922342984416</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>0.45024189213290811</v>
-      </c>
-      <c r="B33">
-        <v>0.19723940416049926</v>
-      </c>
-      <c r="C33">
-        <v>1.006034030706098</v>
-      </c>
-      <c r="D33">
-        <v>1.006034030706098</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>-0.47372684022411704</v>
-      </c>
-      <c r="B34">
-        <v>0.44639804593827037</v>
-      </c>
-      <c r="C34">
-        <v>1.1782001064040803</v>
-      </c>
-      <c r="D34">
-        <v>1.1782001064040803</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>-0.69152020802721381</v>
-      </c>
-      <c r="B35">
-        <v>0.61687639236993574</v>
-      </c>
-      <c r="C35">
-        <v>2.0504877685972462</v>
-      </c>
-      <c r="D35">
-        <v>2.0504877685972462</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>0.86951710097491741</v>
-      </c>
-      <c r="B36">
-        <v>0.4643776941929938</v>
-      </c>
-      <c r="C36">
-        <v>8.9104237557629418E-2</v>
-      </c>
-      <c r="D36">
-        <v>8.9104237557629418E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>-0.6761753698810935</v>
-      </c>
-      <c r="B37">
-        <v>0.86884068055804742</v>
-      </c>
-      <c r="C37">
-        <v>7.4463058894026064</v>
-      </c>
-      <c r="D37">
-        <v>7.4463058894026064</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>0.53931050049141049</v>
-      </c>
-      <c r="B38">
-        <v>0.45126250242136673</v>
-      </c>
-      <c r="C38">
-        <v>1.307264922986223</v>
-      </c>
-      <c r="D38">
-        <v>1.307264922986223</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>0.31303410418331623</v>
-      </c>
-      <c r="B39">
-        <v>0.69712292681630206</v>
-      </c>
-      <c r="C39">
-        <v>6.2342496314924833</v>
-      </c>
-      <c r="D39">
-        <v>6.2342496314924833</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>0.35185526311397552</v>
-      </c>
-      <c r="B40">
-        <v>0.40012311775245674</v>
-      </c>
-      <c r="C40">
-        <v>-4.0200048687260459</v>
-      </c>
-      <c r="D40">
-        <v>-4.0200048687260459</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>0.89112694095820189</v>
-      </c>
-      <c r="B41">
-        <v>0.5976110446039441</v>
-      </c>
-      <c r="C41">
-        <v>3.4169148835772045E-2</v>
-      </c>
-      <c r="D41">
-        <v>3.4169148835772045E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>-0.27256935695186257</v>
-      </c>
-      <c r="B42">
-        <v>0.41851314442873155</v>
-      </c>
-      <c r="C42">
-        <v>-1.3548335789010286</v>
-      </c>
-      <c r="D42">
-        <v>-1.3548335789010286</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>0.33053294010460377</v>
-      </c>
-      <c r="B43">
-        <v>0.4062008328090409</v>
-      </c>
-      <c r="C43">
-        <v>-1.1596026423635903</v>
-      </c>
-      <c r="D43">
-        <v>-1.1596026423635903</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>-0.29519950738176703</v>
-      </c>
-      <c r="B44">
-        <v>0.15969717775198106</v>
-      </c>
-      <c r="C44">
-        <v>1.0305361356862546</v>
-      </c>
-      <c r="D44">
-        <v>1.0305361356862546</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>-0.1013447567820549</v>
-      </c>
-      <c r="B45">
-        <v>0.82141603718974421</v>
-      </c>
-      <c r="C45">
-        <v>-3.4377109086470448</v>
-      </c>
-      <c r="D45">
-        <v>-3.4377109086470448</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>0.14390164194628596</v>
-      </c>
-      <c r="B46">
-        <v>0.68631523009428574</v>
-      </c>
-      <c r="C46">
-        <v>2.4622699294033259</v>
-      </c>
-      <c r="D46">
-        <v>2.4622699294033259</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>-0.47559220204129815</v>
-      </c>
-      <c r="B47">
-        <v>0.74566376220042918</v>
-      </c>
-      <c r="C47">
-        <v>-0.99732039943250061</v>
-      </c>
-      <c r="D47">
-        <v>-0.99732039943250061</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>0.61171672400087118</v>
-      </c>
-      <c r="B48">
-        <v>6.7854623536600725E-2</v>
-      </c>
-      <c r="C48">
-        <v>1.1005746032064949</v>
-      </c>
-      <c r="D48">
-        <v>1.1005746032064949</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>0.27816094411537051</v>
-      </c>
-      <c r="B49">
-        <v>0.82585167005802462</v>
-      </c>
-      <c r="C49">
-        <v>6.5988649374727313</v>
-      </c>
-      <c r="D49">
-        <v>6.5988649374727313</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>-0.90146514819934964</v>
-      </c>
-      <c r="B50">
-        <v>0.10993521648427924</v>
-      </c>
-      <c r="C50">
-        <v>-0.20768759448005492</v>
-      </c>
-      <c r="D50">
-        <v>-0.20768759448005492</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>-0.69292904064059258</v>
-      </c>
-      <c r="B51">
-        <v>0.35936908160203057</v>
-      </c>
-      <c r="C51">
-        <v>5.7701361645018228</v>
-      </c>
-      <c r="D51">
-        <v>5.7701361645018228</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>-0.32952900836244226</v>
-      </c>
-      <c r="B52">
-        <v>0.4644778809840136</v>
-      </c>
-      <c r="C52">
-        <v>5.5068435364648307</v>
-      </c>
-      <c r="D52">
-        <v>5.5068435364648307</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>0.33525006379932165</v>
-      </c>
-      <c r="B53">
-        <v>0.71609005148339189</v>
-      </c>
-      <c r="C53">
-        <v>4.55777452279745</v>
-      </c>
-      <c r="D53">
-        <v>4.55777452279745</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>0.42683249805122614</v>
-      </c>
-      <c r="B54">
-        <v>0.87204465417089594</v>
-      </c>
-      <c r="C54">
-        <v>1.7655618709339955</v>
-      </c>
-      <c r="D54">
-        <v>1.7655618709339955</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>9.628297109156847E-2</v>
-      </c>
-      <c r="B55">
-        <v>0.74054380062048408</v>
-      </c>
-      <c r="C55">
-        <v>2.8929635328363386</v>
-      </c>
-      <c r="D55">
-        <v>2.8929635328363386</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>-0.86457695998251438</v>
-      </c>
-      <c r="B56">
-        <v>0.35552563999353248</v>
-      </c>
-      <c r="C56">
-        <v>-1.3746628318613956</v>
-      </c>
-      <c r="D56">
-        <v>-1.3746628318613956</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>0.58661293378099799</v>
-      </c>
-      <c r="B57">
-        <v>0.38615562622748251</v>
-      </c>
-      <c r="C57">
-        <v>2.3641003336061077</v>
-      </c>
-      <c r="D57">
-        <v>2.3641003336061077</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>0.61329979356378317</v>
-      </c>
-      <c r="B58">
-        <v>0.63748594686477589</v>
-      </c>
-      <c r="C58">
-        <v>-0.2242246965670307</v>
-      </c>
-      <c r="D58">
-        <v>-0.2242246965670307</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>0.57989999745041132</v>
-      </c>
-      <c r="B59">
-        <v>0.24676979074511346</v>
-      </c>
-      <c r="C59">
-        <v>2.3702425359557728</v>
-      </c>
-      <c r="D59">
-        <v>2.3702425359557728</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>-0.29786984389647841</v>
-      </c>
-      <c r="B60">
-        <v>0.7138753976497223</v>
-      </c>
-      <c r="C60">
-        <v>-1.7621347660757678</v>
-      </c>
-      <c r="D60">
-        <v>-1.7621347660757678</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>-0.25192663352936506</v>
-      </c>
-      <c r="B61">
-        <v>0.50399007519296113</v>
-      </c>
-      <c r="C61">
-        <v>1.6284041941724754</v>
-      </c>
-      <c r="D61">
-        <v>1.6284041941724754</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>0.48018350452184677</v>
-      </c>
-      <c r="B62">
-        <v>0.28839783695296578</v>
-      </c>
-      <c r="C62">
-        <v>1.3172492959891171</v>
-      </c>
-      <c r="D62">
-        <v>1.3172492959891171</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>-0.29192132456228137</v>
-      </c>
-      <c r="B63">
-        <v>0.78861790975567847</v>
-      </c>
-      <c r="C63">
-        <v>5.654164964431482</v>
-      </c>
-      <c r="D63">
-        <v>5.654164964431482</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>-0.91082127671688795</v>
-      </c>
-      <c r="B64">
-        <v>0.61678229362504644</v>
-      </c>
-      <c r="C64">
-        <v>2.8889448734743386</v>
-      </c>
-      <c r="D64">
-        <v>2.8889448734743386</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>0.34804622549563646</v>
-      </c>
-      <c r="B65">
-        <v>0.50807573787328897</v>
-      </c>
-      <c r="C65">
-        <v>2.748629263631813</v>
-      </c>
-      <c r="D65">
-        <v>2.748629263631813</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>-0.43176339287310839</v>
-      </c>
-      <c r="B66">
-        <v>0.51533682376554879</v>
-      </c>
-      <c r="C66">
-        <v>4.0799376584670313</v>
-      </c>
-      <c r="D66">
-        <v>4.0799376584670313</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>0.40278653148561716</v>
-      </c>
-      <c r="B67">
-        <v>0.55979050475122705</v>
-      </c>
-      <c r="C67">
-        <v>1.1364009938133222</v>
-      </c>
-      <c r="D67">
-        <v>1.1364009938133222</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>-0.26215709280222654</v>
-      </c>
-      <c r="B68">
-        <v>0.32770115272872663</v>
-      </c>
-      <c r="C68">
-        <v>-2.6311626294112642</v>
-      </c>
-      <c r="D68">
-        <v>-2.6311626294112642</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>-0.46861377684399486</v>
-      </c>
-      <c r="B69">
-        <v>0.62609376310019749</v>
-      </c>
-      <c r="C69">
-        <v>-0.5669105660389766</v>
-      </c>
-      <c r="D69">
-        <v>-0.5669105660389766</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>0.93003437900915742</v>
-      </c>
-      <c r="B70">
-        <v>0.73212371148153066</v>
-      </c>
-      <c r="C70">
-        <v>0.12861105403616291</v>
-      </c>
-      <c r="D70">
-        <v>0.12861105403616291</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>0.80312925251200795</v>
-      </c>
-      <c r="B71">
-        <v>0.27723276185663853</v>
-      </c>
-      <c r="C71">
-        <v>-0.65976582412958029</v>
-      </c>
-      <c r="D71">
-        <v>-0.65976582412958029</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>-0.68696849793195724</v>
-      </c>
-      <c r="B72">
-        <v>0.85646519989367853</v>
-      </c>
-      <c r="C72">
-        <v>2.4321500942923606</v>
-      </c>
-      <c r="D72">
-        <v>2.4321500942923606</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>-0.6590762953273952</v>
-      </c>
-      <c r="B73">
-        <v>0.87030137716759659</v>
-      </c>
-      <c r="C73">
-        <v>6.3744434583225544</v>
-      </c>
-      <c r="D73">
-        <v>6.3744434583225544</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>0.3168933866545558</v>
-      </c>
-      <c r="B74">
-        <v>0.88745993806447188</v>
-      </c>
-      <c r="C74">
-        <v>2.8505365823561846</v>
-      </c>
-      <c r="D74">
-        <v>2.8505365823561846</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>0.60784284537658095</v>
-      </c>
-      <c r="B75">
-        <v>0.71701165218701191</v>
-      </c>
-      <c r="C75">
-        <v>1.5461745982230135</v>
-      </c>
-      <c r="D75">
-        <v>1.5461745982230135</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>-0.59493754617869854</v>
-      </c>
-      <c r="B76">
-        <v>0.50830310050459138</v>
-      </c>
-      <c r="C76">
-        <v>2.3491970193892695</v>
-      </c>
-      <c r="D76">
-        <v>2.3491970193892695</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>0.27055360563099384</v>
-      </c>
-      <c r="B77">
-        <v>0.61967795842667939</v>
-      </c>
-      <c r="C77">
-        <v>1.8487862557860726</v>
-      </c>
-      <c r="D77">
-        <v>1.8487862557860726</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>-0.10009184200316668</v>
-      </c>
-      <c r="B78">
-        <v>0.24006192989349837</v>
-      </c>
-      <c r="C78">
-        <v>1.1935708685451325</v>
-      </c>
-      <c r="D78">
-        <v>1.1935708685451325</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>0.79606163268908858</v>
-      </c>
-      <c r="B79">
-        <v>0.45599108148897033</v>
-      </c>
-      <c r="C79">
-        <v>2.4149826706961917</v>
-      </c>
-      <c r="D79">
-        <v>2.4149826706961917</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>-0.33815954113379121</v>
-      </c>
-      <c r="B80">
-        <v>0.85066148317167645</v>
-      </c>
-      <c r="C80">
-        <v>5.1969840339901987</v>
-      </c>
-      <c r="D80">
-        <v>5.1969840339901987</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>-0.25958700757473707</v>
-      </c>
-      <c r="B81">
-        <v>0.60215006583329755</v>
-      </c>
-      <c r="C81">
-        <v>-1.9021269811673447</v>
-      </c>
-      <c r="D81">
-        <v>-1.9021269811673447</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>0.6611259076744318</v>
-      </c>
-      <c r="B82">
-        <v>0.74189061213826046</v>
-      </c>
-      <c r="C82">
-        <v>3.5767110282390639</v>
-      </c>
-      <c r="D82">
-        <v>3.5767110282390639</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>-0.4177185851149261</v>
-      </c>
-      <c r="B83">
-        <v>0.37432048000845114</v>
-      </c>
-      <c r="C83">
-        <v>1.1545554672128397</v>
-      </c>
-      <c r="D83">
-        <v>1.1545554672128397</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>0.62532191211357713</v>
-      </c>
-      <c r="B84">
-        <v>0.61941352062909771</v>
-      </c>
-      <c r="C84">
-        <v>-1.9089264363352179</v>
-      </c>
-      <c r="D84">
-        <v>-1.9089264363352179</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>0.28010437684133649</v>
-      </c>
-      <c r="B85">
-        <v>0.11187126962852734</v>
-      </c>
-      <c r="C85">
-        <v>4.1383001919165139</v>
-      </c>
-      <c r="D85">
-        <v>4.1383001919165139</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>0.37171070743352175</v>
-      </c>
-      <c r="B86">
-        <v>0.22914502905569734</v>
-      </c>
-      <c r="C86">
-        <v>-0.73538181680084413</v>
-      </c>
-      <c r="D86">
-        <v>-0.73538181680084413</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>-2.3498728405684233E-2</v>
-      </c>
-      <c r="B87">
-        <v>0.83423183832299708</v>
-      </c>
-      <c r="C87">
-        <v>6.1520467110905814</v>
-      </c>
-      <c r="D87">
-        <v>6.1520467110905814</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>0.36598141398280859</v>
-      </c>
-      <c r="B88">
-        <v>0.36052129017813928</v>
-      </c>
-      <c r="C88">
-        <v>3.0652817896660673</v>
-      </c>
-      <c r="D88">
-        <v>3.0652817896660673</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>-0.73137106746435165</v>
-      </c>
-      <c r="B89">
-        <v>0.9523209941081725</v>
-      </c>
-      <c r="C89">
-        <v>-1.2541605097835546</v>
-      </c>
-      <c r="D89">
-        <v>-1.2541605097835546</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>6.6931700333952904E-2</v>
-      </c>
-      <c r="B90">
-        <v>0.33932080191803249</v>
-      </c>
-      <c r="C90">
-        <v>2.8154014222675272</v>
-      </c>
-      <c r="D90">
-        <v>2.8154014222675272</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>0.50061998516321182</v>
-      </c>
-      <c r="B91">
-        <v>0.58717582933158641</v>
-      </c>
-      <c r="C91">
-        <v>3.0275562573791142</v>
-      </c>
-      <c r="D91">
-        <v>3.0275562573791142</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>0.25722116138786077</v>
-      </c>
-      <c r="B92">
-        <v>0.67185143525285274</v>
-      </c>
-      <c r="C92">
-        <v>5.6486916454667258</v>
-      </c>
-      <c r="D92">
-        <v>5.6486916454667258</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>-0.32637759391218424</v>
-      </c>
-      <c r="B93">
-        <v>0.65143113937539654</v>
-      </c>
-      <c r="C93">
-        <v>3.829135001119909</v>
-      </c>
-      <c r="D93">
-        <v>3.829135001119909</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>-0.801655865740031</v>
-      </c>
-      <c r="B94">
-        <v>0.37540367192598789</v>
-      </c>
-      <c r="C94">
-        <v>7.784545404301034</v>
-      </c>
-      <c r="D94">
-        <v>7.784545404301034</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>0.79797026654705405</v>
-      </c>
-      <c r="B95">
-        <v>0.87009751405998814</v>
-      </c>
-      <c r="C95">
-        <v>-2.4411080132540901</v>
-      </c>
-      <c r="D95">
-        <v>-2.4411080132540901</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>6.05545649304986E-2</v>
-      </c>
-      <c r="B96">
-        <v>0.83226891657592039</v>
-      </c>
-      <c r="C96">
-        <v>5.7577909822258997</v>
-      </c>
-      <c r="D96">
-        <v>5.7577909822258997</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>-0.80952635360881686</v>
-      </c>
-      <c r="B97">
-        <v>0.3199582956942279</v>
-      </c>
-      <c r="C97">
-        <v>-1.4940430248515804</v>
-      </c>
-      <c r="D97">
-        <v>-1.4940430248515804</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>0.45351168466731906</v>
-      </c>
-      <c r="B98">
-        <v>0.49291685043121797</v>
-      </c>
-      <c r="C98">
-        <v>0.15100594179886162</v>
-      </c>
-      <c r="D98">
-        <v>0.15100594179886162</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>0.34591140458360314</v>
-      </c>
-      <c r="B99">
-        <v>0.38765161365002254</v>
-      </c>
-      <c r="C99">
-        <v>2.6161221467094253</v>
-      </c>
-      <c r="D99">
-        <v>2.6161221467094253</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>0.7174810110591352</v>
-      </c>
-      <c r="B100">
-        <v>0.82573982937149881</v>
-      </c>
-      <c r="C100">
-        <v>4.9221390967172383</v>
-      </c>
-      <c r="D100">
-        <v>4.9221390967172383</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>-0.94411851745098829</v>
-      </c>
-      <c r="B101">
-        <v>0.90323890173730392</v>
-      </c>
-      <c r="C101">
-        <v>4.0263725186965367</v>
-      </c>
-      <c r="D101">
-        <v>4.0263725186965367</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>